--- a/input/cross_walk_data_final.xlsx
+++ b/input/cross_walk_data_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Dropbox\PhD thesis\chapitre_2\PhD-Chapter-2\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{15C30229-7EF2-4967-B6B2-DDDCBD25C805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F62F668-D38C-4507-B1A6-6F730F0A6915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EA803B54-9976-44B1-A565-7FDD29BE643E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EA803B54-9976-44B1-A565-7FDD29BE643E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2006,6 +2005,7 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
+      <sheetName val="Feuil1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -2045,12 +2045,15 @@
           <cell r="J2">
             <v>1</v>
           </cell>
+          <cell r="K2"/>
           <cell r="L2" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M2" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N2"/>
+          <cell r="O2"/>
           <cell r="P2">
             <v>73260</v>
           </cell>
@@ -2065,12 +2068,15 @@
           <cell r="J3">
             <v>2</v>
           </cell>
+          <cell r="K3"/>
           <cell r="L3" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M3" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N3"/>
+          <cell r="O3"/>
           <cell r="P3">
             <v>73260</v>
           </cell>
@@ -2085,12 +2091,15 @@
           <cell r="J4">
             <v>3</v>
           </cell>
+          <cell r="K4"/>
           <cell r="L4" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M4" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N4"/>
+          <cell r="O4"/>
           <cell r="P4">
             <v>73260</v>
           </cell>
@@ -2105,12 +2114,15 @@
           <cell r="J5">
             <v>4</v>
           </cell>
+          <cell r="K5"/>
           <cell r="L5" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M5" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N5"/>
+          <cell r="O5"/>
           <cell r="P5">
             <v>73260</v>
           </cell>
@@ -2125,12 +2137,15 @@
           <cell r="J6">
             <v>5</v>
           </cell>
+          <cell r="K6"/>
           <cell r="L6" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M6" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N6"/>
+          <cell r="O6"/>
           <cell r="P6">
             <v>73260</v>
           </cell>
@@ -2145,12 +2160,15 @@
           <cell r="J7">
             <v>6</v>
           </cell>
+          <cell r="K7"/>
           <cell r="L7" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M7" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N7"/>
+          <cell r="O7"/>
           <cell r="P7">
             <v>73260</v>
           </cell>
@@ -2165,12 +2183,15 @@
           <cell r="J8">
             <v>7</v>
           </cell>
+          <cell r="K8"/>
           <cell r="L8" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M8" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N8"/>
+          <cell r="O8"/>
           <cell r="P8">
             <v>73260</v>
           </cell>
@@ -2185,12 +2206,15 @@
           <cell r="J9">
             <v>8</v>
           </cell>
+          <cell r="K9"/>
           <cell r="L9" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M9" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N9"/>
+          <cell r="O9"/>
           <cell r="P9">
             <v>73260</v>
           </cell>
@@ -2205,12 +2229,15 @@
           <cell r="J10">
             <v>9</v>
           </cell>
+          <cell r="K10"/>
           <cell r="L10" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M10" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N10"/>
+          <cell r="O10"/>
           <cell r="P10">
             <v>73260</v>
           </cell>
@@ -2225,12 +2252,15 @@
           <cell r="J11">
             <v>10</v>
           </cell>
+          <cell r="K11"/>
           <cell r="L11" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M11" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N11"/>
+          <cell r="O11"/>
           <cell r="P11">
             <v>73260</v>
           </cell>
@@ -2245,12 +2275,15 @@
           <cell r="J12">
             <v>11</v>
           </cell>
+          <cell r="K12"/>
           <cell r="L12" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M12" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N12"/>
+          <cell r="O12"/>
           <cell r="P12">
             <v>73260</v>
           </cell>
@@ -2265,12 +2298,15 @@
           <cell r="J13">
             <v>12</v>
           </cell>
+          <cell r="K13"/>
           <cell r="L13" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M13" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N13"/>
+          <cell r="O13"/>
           <cell r="P13">
             <v>73260</v>
           </cell>
@@ -2285,12 +2321,15 @@
           <cell r="J14">
             <v>13</v>
           </cell>
+          <cell r="K14"/>
           <cell r="L14" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M14" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N14"/>
+          <cell r="O14"/>
           <cell r="P14">
             <v>73260</v>
           </cell>
@@ -2305,12 +2344,15 @@
           <cell r="J15">
             <v>14</v>
           </cell>
+          <cell r="K15"/>
           <cell r="L15" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M15" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N15"/>
+          <cell r="O15"/>
           <cell r="P15">
             <v>73260</v>
           </cell>
@@ -2325,12 +2367,15 @@
           <cell r="J16">
             <v>15</v>
           </cell>
+          <cell r="K16"/>
           <cell r="L16" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M16" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N16"/>
+          <cell r="O16"/>
           <cell r="P16">
             <v>73260</v>
           </cell>
@@ -2345,12 +2390,15 @@
           <cell r="J17">
             <v>16</v>
           </cell>
+          <cell r="K17"/>
           <cell r="L17" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M17" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N17"/>
+          <cell r="O17"/>
           <cell r="P17">
             <v>73260</v>
           </cell>
@@ -2365,12 +2413,15 @@
           <cell r="J18">
             <v>17</v>
           </cell>
+          <cell r="K18"/>
           <cell r="L18" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M18" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N18"/>
+          <cell r="O18"/>
           <cell r="P18">
             <v>73260</v>
           </cell>
@@ -2385,12 +2436,15 @@
           <cell r="J19">
             <v>18</v>
           </cell>
+          <cell r="K19"/>
           <cell r="L19" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M19" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N19"/>
+          <cell r="O19"/>
           <cell r="P19">
             <v>73260</v>
           </cell>
@@ -2405,12 +2459,15 @@
           <cell r="J20">
             <v>19</v>
           </cell>
+          <cell r="K20"/>
           <cell r="L20" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M20" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N20"/>
+          <cell r="O20"/>
           <cell r="P20">
             <v>73260</v>
           </cell>
@@ -2425,12 +2482,15 @@
           <cell r="J21">
             <v>20</v>
           </cell>
+          <cell r="K21"/>
           <cell r="L21" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M21" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N21"/>
+          <cell r="O21"/>
           <cell r="P21">
             <v>73260</v>
           </cell>
@@ -2445,12 +2505,15 @@
           <cell r="J22">
             <v>21</v>
           </cell>
+          <cell r="K22"/>
           <cell r="L22" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M22" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N22"/>
+          <cell r="O22"/>
           <cell r="P22">
             <v>73260</v>
           </cell>
@@ -2465,12 +2528,15 @@
           <cell r="J23">
             <v>22</v>
           </cell>
+          <cell r="K23"/>
           <cell r="L23" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M23" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N23"/>
+          <cell r="O23"/>
           <cell r="P23">
             <v>73260</v>
           </cell>
@@ -2485,12 +2551,15 @@
           <cell r="J24">
             <v>23</v>
           </cell>
+          <cell r="K24"/>
           <cell r="L24" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M24" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N24"/>
+          <cell r="O24"/>
           <cell r="P24">
             <v>73260</v>
           </cell>
@@ -2505,12 +2574,15 @@
           <cell r="J25">
             <v>24</v>
           </cell>
+          <cell r="K25"/>
           <cell r="L25" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M25" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N25"/>
+          <cell r="O25"/>
           <cell r="P25">
             <v>73260</v>
           </cell>
@@ -2525,12 +2597,15 @@
           <cell r="J26">
             <v>25</v>
           </cell>
+          <cell r="K26"/>
           <cell r="L26" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M26" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N26"/>
+          <cell r="O26"/>
           <cell r="P26">
             <v>73260</v>
           </cell>
@@ -2545,12 +2620,15 @@
           <cell r="J27">
             <v>26</v>
           </cell>
+          <cell r="K27"/>
           <cell r="L27" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M27" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N27"/>
+          <cell r="O27"/>
           <cell r="P27">
             <v>73260</v>
           </cell>
@@ -2565,12 +2643,15 @@
           <cell r="J28">
             <v>27</v>
           </cell>
+          <cell r="K28"/>
           <cell r="L28" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M28" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N28"/>
+          <cell r="O28"/>
           <cell r="P28">
             <v>73260</v>
           </cell>
@@ -2585,12 +2666,15 @@
           <cell r="J29">
             <v>28</v>
           </cell>
+          <cell r="K29"/>
           <cell r="L29" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M29" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N29"/>
+          <cell r="O29"/>
           <cell r="P29">
             <v>73260</v>
           </cell>
@@ -2605,12 +2689,15 @@
           <cell r="J30">
             <v>29</v>
           </cell>
+          <cell r="K30"/>
           <cell r="L30" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M30" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N30"/>
+          <cell r="O30"/>
           <cell r="P30">
             <v>73260</v>
           </cell>
@@ -2625,12 +2712,15 @@
           <cell r="J31">
             <v>30</v>
           </cell>
+          <cell r="K31"/>
           <cell r="L31" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M31" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N31"/>
+          <cell r="O31"/>
           <cell r="P31">
             <v>73260</v>
           </cell>
@@ -2645,12 +2735,15 @@
           <cell r="J32">
             <v>31</v>
           </cell>
+          <cell r="K32"/>
           <cell r="L32" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M32" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N32"/>
+          <cell r="O32"/>
           <cell r="P32">
             <v>73260</v>
           </cell>
@@ -2665,12 +2758,15 @@
           <cell r="J33">
             <v>32</v>
           </cell>
+          <cell r="K33"/>
           <cell r="L33" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M33" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N33"/>
+          <cell r="O33"/>
           <cell r="P33">
             <v>73260</v>
           </cell>
@@ -2685,12 +2781,15 @@
           <cell r="J34">
             <v>33</v>
           </cell>
+          <cell r="K34"/>
           <cell r="L34" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M34" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N34"/>
+          <cell r="O34"/>
           <cell r="P34">
             <v>73260</v>
           </cell>
@@ -2705,12 +2804,14 @@
           <cell r="J35">
             <v>34</v>
           </cell>
+          <cell r="K35"/>
           <cell r="L35" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M35" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N35"/>
           <cell r="O35" t="str">
             <v>Pirojpur</v>
           </cell>
@@ -2728,12 +2829,15 @@
           <cell r="J36">
             <v>35</v>
           </cell>
+          <cell r="K36"/>
           <cell r="L36" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M36" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N36"/>
+          <cell r="O36"/>
           <cell r="P36">
             <v>73260</v>
           </cell>
@@ -2748,12 +2852,15 @@
           <cell r="J37">
             <v>36</v>
           </cell>
+          <cell r="K37"/>
           <cell r="L37" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M37" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N37"/>
+          <cell r="O37"/>
           <cell r="P37">
             <v>73260</v>
           </cell>
@@ -2768,12 +2875,14 @@
           <cell r="J38">
             <v>37</v>
           </cell>
+          <cell r="K38"/>
           <cell r="L38" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M38" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N38"/>
           <cell r="O38" t="str">
             <v>South Kati</v>
           </cell>
@@ -2791,12 +2900,15 @@
           <cell r="J39">
             <v>38</v>
           </cell>
+          <cell r="K39"/>
           <cell r="L39" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M39" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N39"/>
+          <cell r="O39"/>
           <cell r="P39">
             <v>73260</v>
           </cell>
@@ -2811,12 +2923,15 @@
           <cell r="J40">
             <v>39</v>
           </cell>
+          <cell r="K40"/>
           <cell r="L40" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M40" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N40"/>
+          <cell r="O40"/>
           <cell r="P40">
             <v>635287</v>
           </cell>
@@ -2831,12 +2946,15 @@
           <cell r="J41">
             <v>40</v>
           </cell>
+          <cell r="K41"/>
           <cell r="L41" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M41" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N41"/>
+          <cell r="O41"/>
           <cell r="P41">
             <v>635287</v>
           </cell>
@@ -2851,12 +2969,15 @@
           <cell r="J42">
             <v>41</v>
           </cell>
+          <cell r="K42"/>
           <cell r="L42" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M42" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N42"/>
+          <cell r="O42"/>
           <cell r="P42">
             <v>635287</v>
           </cell>
@@ -2871,12 +2992,15 @@
           <cell r="J43">
             <v>42</v>
           </cell>
+          <cell r="K43"/>
           <cell r="L43" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M43" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N43"/>
+          <cell r="O43"/>
           <cell r="P43">
             <v>635287</v>
           </cell>
@@ -2891,12 +3015,15 @@
           <cell r="J44">
             <v>43</v>
           </cell>
+          <cell r="K44"/>
           <cell r="L44" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M44" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N44"/>
+          <cell r="O44"/>
           <cell r="P44">
             <v>635287</v>
           </cell>
@@ -2911,12 +3038,15 @@
           <cell r="J45">
             <v>44</v>
           </cell>
+          <cell r="K45"/>
           <cell r="L45" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M45" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N45"/>
+          <cell r="O45"/>
           <cell r="P45">
             <v>635287</v>
           </cell>
@@ -2931,12 +3061,15 @@
           <cell r="J46">
             <v>45</v>
           </cell>
+          <cell r="K46"/>
           <cell r="L46" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M46" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N46"/>
+          <cell r="O46"/>
           <cell r="P46">
             <v>635287</v>
           </cell>
@@ -2951,12 +3084,15 @@
           <cell r="J47">
             <v>46</v>
           </cell>
+          <cell r="K47"/>
           <cell r="L47" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M47" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N47"/>
+          <cell r="O47"/>
           <cell r="P47">
             <v>635287</v>
           </cell>
@@ -2971,12 +3107,15 @@
           <cell r="J48">
             <v>47</v>
           </cell>
+          <cell r="K48"/>
           <cell r="L48" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M48" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N48"/>
+          <cell r="O48"/>
           <cell r="P48">
             <v>635287</v>
           </cell>
@@ -2991,12 +3130,15 @@
           <cell r="J49">
             <v>48</v>
           </cell>
+          <cell r="K49"/>
           <cell r="L49" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M49" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N49"/>
+          <cell r="O49"/>
           <cell r="P49">
             <v>635287</v>
           </cell>
@@ -3011,12 +3153,15 @@
           <cell r="J50">
             <v>49</v>
           </cell>
+          <cell r="K50"/>
           <cell r="L50" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M50" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N50"/>
+          <cell r="O50"/>
           <cell r="P50">
             <v>635287</v>
           </cell>
@@ -3031,12 +3176,15 @@
           <cell r="J51">
             <v>50</v>
           </cell>
+          <cell r="K51"/>
           <cell r="L51" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M51" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N51"/>
+          <cell r="O51"/>
           <cell r="P51">
             <v>635287</v>
           </cell>
@@ -3051,12 +3199,15 @@
           <cell r="J52">
             <v>51</v>
           </cell>
+          <cell r="K52"/>
           <cell r="L52" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M52" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N52"/>
+          <cell r="O52"/>
           <cell r="P52">
             <v>635287</v>
           </cell>
@@ -3071,12 +3222,15 @@
           <cell r="J53">
             <v>52</v>
           </cell>
+          <cell r="K53"/>
           <cell r="L53" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M53" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N53"/>
+          <cell r="O53"/>
           <cell r="P53">
             <v>635287</v>
           </cell>
@@ -3091,12 +3245,15 @@
           <cell r="J54">
             <v>53</v>
           </cell>
+          <cell r="K54"/>
           <cell r="L54" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M54" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N54"/>
+          <cell r="O54"/>
           <cell r="P54">
             <v>635287</v>
           </cell>
@@ -3111,12 +3268,15 @@
           <cell r="J55">
             <v>54</v>
           </cell>
+          <cell r="K55"/>
           <cell r="L55" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M55" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N55"/>
+          <cell r="O55"/>
           <cell r="P55">
             <v>635287</v>
           </cell>
@@ -3131,12 +3291,15 @@
           <cell r="J56">
             <v>55</v>
           </cell>
+          <cell r="K56"/>
           <cell r="L56" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M56" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N56"/>
+          <cell r="O56"/>
           <cell r="P56">
             <v>635287</v>
           </cell>
@@ -3151,12 +3314,15 @@
           <cell r="J57">
             <v>56</v>
           </cell>
+          <cell r="K57"/>
           <cell r="L57" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M57" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N57"/>
+          <cell r="O57"/>
           <cell r="P57">
             <v>635287</v>
           </cell>
@@ -3171,12 +3337,14 @@
           <cell r="J58">
             <v>57</v>
           </cell>
+          <cell r="K58"/>
           <cell r="L58" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M58" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N58"/>
           <cell r="O58" t="str">
             <v>Chandpur</v>
           </cell>
@@ -3194,12 +3362,15 @@
           <cell r="J59">
             <v>58</v>
           </cell>
+          <cell r="K59"/>
           <cell r="L59" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M59" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N59"/>
+          <cell r="O59"/>
           <cell r="P59">
             <v>635287</v>
           </cell>
@@ -3214,12 +3385,15 @@
           <cell r="J60">
             <v>59</v>
           </cell>
+          <cell r="K60"/>
           <cell r="L60" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M60" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N60"/>
+          <cell r="O60"/>
           <cell r="P60">
             <v>635287</v>
           </cell>
@@ -3234,12 +3408,15 @@
           <cell r="J61">
             <v>60</v>
           </cell>
+          <cell r="K61"/>
           <cell r="L61" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M61" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N61"/>
+          <cell r="O61"/>
           <cell r="P61">
             <v>635287</v>
           </cell>
@@ -3254,12 +3431,15 @@
           <cell r="J62">
             <v>61</v>
           </cell>
+          <cell r="K62"/>
           <cell r="L62" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M62" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N62"/>
+          <cell r="O62"/>
           <cell r="P62">
             <v>635287</v>
           </cell>
@@ -3274,12 +3454,15 @@
           <cell r="J63">
             <v>62</v>
           </cell>
+          <cell r="K63"/>
           <cell r="L63" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M63" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N63"/>
+          <cell r="O63"/>
           <cell r="P63">
             <v>635287</v>
           </cell>
@@ -3294,12 +3477,15 @@
           <cell r="J64">
             <v>63</v>
           </cell>
+          <cell r="K64"/>
           <cell r="L64" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M64" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N64"/>
+          <cell r="O64"/>
           <cell r="P64">
             <v>635287</v>
           </cell>
@@ -3314,12 +3500,15 @@
           <cell r="J65">
             <v>64</v>
           </cell>
+          <cell r="K65"/>
           <cell r="L65" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M65" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N65"/>
+          <cell r="O65"/>
           <cell r="P65">
             <v>635287</v>
           </cell>
@@ -3334,12 +3523,15 @@
           <cell r="J66">
             <v>65</v>
           </cell>
+          <cell r="K66"/>
           <cell r="L66" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M66" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N66"/>
+          <cell r="O66"/>
           <cell r="P66">
             <v>635287</v>
           </cell>
@@ -3354,12 +3546,14 @@
           <cell r="J67">
             <v>66</v>
           </cell>
+          <cell r="K67"/>
           <cell r="L67" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M67" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N67"/>
           <cell r="O67" t="str">
             <v>Chittagong</v>
           </cell>
@@ -3377,12 +3571,14 @@
           <cell r="J68">
             <v>67</v>
           </cell>
+          <cell r="K68"/>
           <cell r="L68" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M68" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N68"/>
           <cell r="O68" t="str">
             <v>Chittagong</v>
           </cell>
@@ -3400,12 +3596,15 @@
           <cell r="J69">
             <v>68</v>
           </cell>
+          <cell r="K69"/>
           <cell r="L69" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M69" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N69"/>
+          <cell r="O69"/>
           <cell r="P69">
             <v>635287</v>
           </cell>
@@ -3420,12 +3619,15 @@
           <cell r="J70">
             <v>69</v>
           </cell>
+          <cell r="K70"/>
           <cell r="L70" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M70" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N70"/>
+          <cell r="O70"/>
           <cell r="P70">
             <v>635287</v>
           </cell>
@@ -3440,12 +3642,15 @@
           <cell r="J71">
             <v>70</v>
           </cell>
+          <cell r="K71"/>
           <cell r="L71" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M71" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N71"/>
+          <cell r="O71"/>
           <cell r="P71">
             <v>635287</v>
           </cell>
@@ -3460,12 +3665,15 @@
           <cell r="J72">
             <v>71</v>
           </cell>
+          <cell r="K72"/>
           <cell r="L72" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M72" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N72"/>
+          <cell r="O72"/>
           <cell r="P72">
             <v>635287</v>
           </cell>
@@ -3480,12 +3688,15 @@
           <cell r="J73">
             <v>72</v>
           </cell>
+          <cell r="K73"/>
           <cell r="L73" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M73" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N73"/>
+          <cell r="O73"/>
           <cell r="P73">
             <v>635287</v>
           </cell>
@@ -3500,12 +3711,15 @@
           <cell r="J74">
             <v>73</v>
           </cell>
+          <cell r="K74"/>
           <cell r="L74" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M74" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N74"/>
+          <cell r="O74"/>
           <cell r="P74">
             <v>635287</v>
           </cell>
@@ -3520,12 +3734,15 @@
           <cell r="J75">
             <v>74</v>
           </cell>
+          <cell r="K75"/>
           <cell r="L75" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M75" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N75"/>
+          <cell r="O75"/>
           <cell r="P75">
             <v>635287</v>
           </cell>
@@ -3540,12 +3757,15 @@
           <cell r="J76">
             <v>75</v>
           </cell>
+          <cell r="K76"/>
           <cell r="L76" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M76" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N76"/>
+          <cell r="O76"/>
           <cell r="P76">
             <v>635287</v>
           </cell>
@@ -3560,12 +3780,15 @@
           <cell r="J77">
             <v>76</v>
           </cell>
+          <cell r="K77"/>
           <cell r="L77" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M77" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N77"/>
+          <cell r="O77"/>
           <cell r="P77">
             <v>635287</v>
           </cell>
@@ -3580,12 +3803,15 @@
           <cell r="J78">
             <v>77</v>
           </cell>
+          <cell r="K78"/>
           <cell r="L78" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M78" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N78"/>
+          <cell r="O78"/>
           <cell r="P78">
             <v>635287</v>
           </cell>
@@ -3600,12 +3826,15 @@
           <cell r="J79">
             <v>78</v>
           </cell>
+          <cell r="K79"/>
           <cell r="L79" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M79" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N79"/>
+          <cell r="O79"/>
           <cell r="P79">
             <v>635287</v>
           </cell>
@@ -3620,12 +3849,15 @@
           <cell r="J80">
             <v>79</v>
           </cell>
+          <cell r="K80"/>
           <cell r="L80" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M80" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N80"/>
+          <cell r="O80"/>
           <cell r="P80">
             <v>635287</v>
           </cell>
@@ -3640,12 +3872,15 @@
           <cell r="J81">
             <v>80</v>
           </cell>
+          <cell r="K81"/>
           <cell r="L81" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M81" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N81"/>
+          <cell r="O81"/>
           <cell r="P81">
             <v>635287</v>
           </cell>
@@ -3660,12 +3895,15 @@
           <cell r="J82">
             <v>81</v>
           </cell>
+          <cell r="K82"/>
           <cell r="L82" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M82" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N82"/>
+          <cell r="O82"/>
           <cell r="P82">
             <v>635287</v>
           </cell>
@@ -3680,12 +3918,15 @@
           <cell r="J83">
             <v>82</v>
           </cell>
+          <cell r="K83"/>
           <cell r="L83" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M83" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N83"/>
+          <cell r="O83"/>
           <cell r="P83">
             <v>635287</v>
           </cell>
@@ -3700,12 +3941,15 @@
           <cell r="J84">
             <v>83</v>
           </cell>
+          <cell r="K84"/>
           <cell r="L84" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M84" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N84"/>
+          <cell r="O84"/>
           <cell r="P84">
             <v>635287</v>
           </cell>
@@ -3720,12 +3964,15 @@
           <cell r="J85">
             <v>84</v>
           </cell>
+          <cell r="K85"/>
           <cell r="L85" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M85" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N85"/>
+          <cell r="O85"/>
           <cell r="P85">
             <v>635287</v>
           </cell>
@@ -3740,12 +3987,15 @@
           <cell r="J86">
             <v>85</v>
           </cell>
+          <cell r="K86"/>
           <cell r="L86" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M86" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N86"/>
+          <cell r="O86"/>
           <cell r="P86">
             <v>635287</v>
           </cell>
@@ -3760,12 +4010,15 @@
           <cell r="J87">
             <v>86</v>
           </cell>
+          <cell r="K87"/>
           <cell r="L87" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M87" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N87"/>
+          <cell r="O87"/>
           <cell r="P87">
             <v>635287</v>
           </cell>
@@ -3780,12 +4033,15 @@
           <cell r="J88">
             <v>87</v>
           </cell>
+          <cell r="K88"/>
           <cell r="L88" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M88" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N88"/>
+          <cell r="O88"/>
           <cell r="P88">
             <v>635287</v>
           </cell>
@@ -3800,12 +4056,15 @@
           <cell r="J89">
             <v>88</v>
           </cell>
+          <cell r="K89"/>
           <cell r="L89" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M89" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N89"/>
+          <cell r="O89"/>
           <cell r="P89">
             <v>635287</v>
           </cell>
@@ -3820,12 +4079,15 @@
           <cell r="J90">
             <v>89</v>
           </cell>
+          <cell r="K90"/>
           <cell r="L90" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M90" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N90"/>
+          <cell r="O90"/>
           <cell r="P90">
             <v>635287</v>
           </cell>
@@ -3840,12 +4102,15 @@
           <cell r="J91">
             <v>90</v>
           </cell>
+          <cell r="K91"/>
           <cell r="L91" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M91" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N91"/>
+          <cell r="O91"/>
           <cell r="P91">
             <v>635287</v>
           </cell>
@@ -3860,12 +4125,15 @@
           <cell r="J92">
             <v>91</v>
           </cell>
+          <cell r="K92"/>
           <cell r="L92" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M92" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N92"/>
+          <cell r="O92"/>
           <cell r="P92">
             <v>635287</v>
           </cell>
@@ -3880,12 +4148,15 @@
           <cell r="J93">
             <v>92</v>
           </cell>
+          <cell r="K93"/>
           <cell r="L93" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M93" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N93"/>
+          <cell r="O93"/>
           <cell r="P93">
             <v>635287</v>
           </cell>
@@ -3900,12 +4171,15 @@
           <cell r="J94">
             <v>93</v>
           </cell>
+          <cell r="K94"/>
           <cell r="L94" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M94" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N94"/>
+          <cell r="O94"/>
           <cell r="P94">
             <v>635287</v>
           </cell>
@@ -3920,12 +4194,15 @@
           <cell r="J95">
             <v>94</v>
           </cell>
+          <cell r="K95"/>
           <cell r="L95" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M95" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N95"/>
+          <cell r="O95"/>
           <cell r="P95">
             <v>635287</v>
           </cell>
@@ -3940,12 +4217,15 @@
           <cell r="J96">
             <v>95</v>
           </cell>
+          <cell r="K96"/>
           <cell r="L96" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M96" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N96"/>
+          <cell r="O96"/>
           <cell r="P96">
             <v>635287</v>
           </cell>
@@ -3960,12 +4240,15 @@
           <cell r="J97">
             <v>96</v>
           </cell>
+          <cell r="K97"/>
           <cell r="L97" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M97" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N97"/>
+          <cell r="O97"/>
           <cell r="P97">
             <v>635287</v>
           </cell>
@@ -3980,12 +4263,15 @@
           <cell r="J98">
             <v>97</v>
           </cell>
+          <cell r="K98"/>
           <cell r="L98" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M98" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N98"/>
+          <cell r="O98"/>
           <cell r="P98">
             <v>635287</v>
           </cell>
@@ -4000,12 +4286,15 @@
           <cell r="J99">
             <v>98</v>
           </cell>
+          <cell r="K99"/>
           <cell r="L99" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M99" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N99"/>
+          <cell r="O99"/>
           <cell r="P99">
             <v>635287</v>
           </cell>
@@ -4020,12 +4309,15 @@
           <cell r="J100">
             <v>99</v>
           </cell>
+          <cell r="K100"/>
           <cell r="L100" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M100" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N100"/>
+          <cell r="O100"/>
           <cell r="P100">
             <v>635287</v>
           </cell>
@@ -4040,12 +4332,15 @@
           <cell r="J101">
             <v>100</v>
           </cell>
+          <cell r="K101"/>
           <cell r="L101" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M101" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N101"/>
+          <cell r="O101"/>
           <cell r="P101">
             <v>635287</v>
           </cell>
@@ -4060,12 +4355,15 @@
           <cell r="J102">
             <v>101</v>
           </cell>
+          <cell r="K102"/>
           <cell r="L102" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M102" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N102"/>
+          <cell r="O102"/>
           <cell r="P102">
             <v>635287</v>
           </cell>
@@ -4080,12 +4378,15 @@
           <cell r="J103">
             <v>102</v>
           </cell>
+          <cell r="K103"/>
           <cell r="L103" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M103" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N103"/>
+          <cell r="O103"/>
           <cell r="P103">
             <v>635287</v>
           </cell>
@@ -4100,12 +4401,15 @@
           <cell r="J104">
             <v>103</v>
           </cell>
+          <cell r="K104"/>
           <cell r="L104" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M104" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N104"/>
+          <cell r="O104"/>
           <cell r="P104">
             <v>635287</v>
           </cell>
@@ -4120,12 +4424,15 @@
           <cell r="J105">
             <v>104</v>
           </cell>
+          <cell r="K105"/>
           <cell r="L105" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M105" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N105"/>
+          <cell r="O105"/>
           <cell r="P105">
             <v>635287</v>
           </cell>
@@ -4140,12 +4447,15 @@
           <cell r="J106">
             <v>105</v>
           </cell>
+          <cell r="K106"/>
           <cell r="L106" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M106" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N106"/>
+          <cell r="O106"/>
           <cell r="P106">
             <v>635287</v>
           </cell>
@@ -4160,12 +4470,15 @@
           <cell r="J107">
             <v>106</v>
           </cell>
+          <cell r="K107"/>
           <cell r="L107" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M107" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N107"/>
+          <cell r="O107"/>
           <cell r="P107">
             <v>635287</v>
           </cell>
@@ -4180,12 +4493,15 @@
           <cell r="J108">
             <v>107</v>
           </cell>
+          <cell r="K108"/>
           <cell r="L108" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M108" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N108"/>
+          <cell r="O108"/>
           <cell r="P108">
             <v>635287</v>
           </cell>
@@ -4200,12 +4516,14 @@
           <cell r="J109">
             <v>108</v>
           </cell>
+          <cell r="K109"/>
           <cell r="L109" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M109" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N109"/>
           <cell r="O109" t="str">
             <v>Lakshmipur</v>
           </cell>
@@ -4223,12 +4541,15 @@
           <cell r="J110">
             <v>109</v>
           </cell>
+          <cell r="K110"/>
           <cell r="L110" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M110" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N110"/>
+          <cell r="O110"/>
           <cell r="P110">
             <v>635287</v>
           </cell>
@@ -4243,12 +4564,15 @@
           <cell r="J111">
             <v>110</v>
           </cell>
+          <cell r="K111"/>
           <cell r="L111" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M111" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N111"/>
+          <cell r="O111"/>
           <cell r="P111">
             <v>635287</v>
           </cell>
@@ -4263,12 +4587,15 @@
           <cell r="J112">
             <v>111</v>
           </cell>
+          <cell r="K112"/>
           <cell r="L112" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M112" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N112"/>
+          <cell r="O112"/>
           <cell r="P112">
             <v>635287</v>
           </cell>
@@ -4283,12 +4610,15 @@
           <cell r="J113">
             <v>112</v>
           </cell>
+          <cell r="K113"/>
           <cell r="L113" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M113" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N113"/>
+          <cell r="O113"/>
           <cell r="P113">
             <v>635287</v>
           </cell>
@@ -4303,12 +4633,14 @@
           <cell r="J114">
             <v>113</v>
           </cell>
+          <cell r="K114"/>
           <cell r="L114" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M114" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N114"/>
           <cell r="O114" t="str">
             <v>Noakhali</v>
           </cell>
@@ -4326,12 +4658,15 @@
           <cell r="J115">
             <v>114</v>
           </cell>
+          <cell r="K115"/>
           <cell r="L115" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M115" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N115"/>
+          <cell r="O115"/>
           <cell r="P115">
             <v>635287</v>
           </cell>
@@ -4346,12 +4681,15 @@
           <cell r="J116">
             <v>115</v>
           </cell>
+          <cell r="K116"/>
           <cell r="L116" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M116" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N116"/>
+          <cell r="O116"/>
           <cell r="P116">
             <v>635287</v>
           </cell>
@@ -4366,12 +4704,15 @@
           <cell r="J117">
             <v>116</v>
           </cell>
+          <cell r="K117"/>
           <cell r="L117" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M117" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N117"/>
+          <cell r="O117"/>
           <cell r="P117">
             <v>635287</v>
           </cell>
@@ -4386,12 +4727,15 @@
           <cell r="J118">
             <v>117</v>
           </cell>
+          <cell r="K118"/>
           <cell r="L118" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M118" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N118"/>
+          <cell r="O118"/>
           <cell r="P118">
             <v>635287</v>
           </cell>
@@ -4406,12 +4750,15 @@
           <cell r="J119">
             <v>118</v>
           </cell>
+          <cell r="K119"/>
           <cell r="L119" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M119" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N119"/>
+          <cell r="O119"/>
           <cell r="P119">
             <v>635287</v>
           </cell>
@@ -4426,12 +4773,15 @@
           <cell r="J120">
             <v>119</v>
           </cell>
+          <cell r="K120"/>
           <cell r="L120" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M120" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N120"/>
+          <cell r="O120"/>
           <cell r="P120">
             <v>635287</v>
           </cell>
@@ -4446,12 +4796,15 @@
           <cell r="J121">
             <v>120</v>
           </cell>
+          <cell r="K121"/>
           <cell r="L121" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M121" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N121"/>
+          <cell r="O121"/>
           <cell r="P121">
             <v>635287</v>
           </cell>
@@ -4466,12 +4819,15 @@
           <cell r="J122">
             <v>121</v>
           </cell>
+          <cell r="K122"/>
           <cell r="L122" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M122" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N122"/>
+          <cell r="O122"/>
           <cell r="P122">
             <v>635287</v>
           </cell>
@@ -4486,12 +4842,14 @@
           <cell r="J123">
             <v>122</v>
           </cell>
+          <cell r="K123"/>
           <cell r="L123" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M123" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N123"/>
           <cell r="O123" t="str">
             <v>Rangamati</v>
           </cell>
@@ -4509,12 +4867,15 @@
           <cell r="J124">
             <v>123</v>
           </cell>
+          <cell r="K124"/>
           <cell r="L124" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M124" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N124"/>
+          <cell r="O124"/>
           <cell r="P124">
             <v>635287</v>
           </cell>
@@ -4529,12 +4890,15 @@
           <cell r="J125">
             <v>124</v>
           </cell>
+          <cell r="K125"/>
           <cell r="L125" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M125" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N125"/>
+          <cell r="O125"/>
           <cell r="P125">
             <v>635287</v>
           </cell>
@@ -4549,12 +4913,15 @@
           <cell r="J126">
             <v>125</v>
           </cell>
+          <cell r="K126"/>
           <cell r="L126" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M126" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N126"/>
+          <cell r="O126"/>
           <cell r="P126">
             <v>635287</v>
           </cell>
@@ -4569,12 +4936,15 @@
           <cell r="J127">
             <v>126</v>
           </cell>
+          <cell r="K127"/>
           <cell r="L127" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M127" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N127"/>
+          <cell r="O127"/>
           <cell r="P127">
             <v>635287</v>
           </cell>
@@ -4589,12 +4959,15 @@
           <cell r="J128">
             <v>127</v>
           </cell>
+          <cell r="K128"/>
           <cell r="L128" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M128" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N128"/>
+          <cell r="O128"/>
           <cell r="P128" t="e">
             <v>#N/A</v>
           </cell>
@@ -4609,12 +4982,15 @@
           <cell r="J129">
             <v>128</v>
           </cell>
+          <cell r="K129"/>
           <cell r="L129" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M129" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N129"/>
+          <cell r="O129"/>
           <cell r="P129" t="e">
             <v>#N/A</v>
           </cell>
@@ -4629,12 +5005,15 @@
           <cell r="J130">
             <v>129</v>
           </cell>
+          <cell r="K130"/>
           <cell r="L130" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M130" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N130"/>
+          <cell r="O130"/>
           <cell r="P130" t="e">
             <v>#N/A</v>
           </cell>
@@ -4649,12 +5028,14 @@
           <cell r="J131">
             <v>130</v>
           </cell>
+          <cell r="K131"/>
           <cell r="L131" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M131" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N131"/>
           <cell r="O131" t="str">
             <v>Dhaka</v>
           </cell>
@@ -4672,12 +5053,15 @@
           <cell r="J132">
             <v>131</v>
           </cell>
+          <cell r="K132"/>
           <cell r="L132" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M132" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N132"/>
+          <cell r="O132"/>
           <cell r="P132" t="e">
             <v>#N/A</v>
           </cell>
@@ -4692,12 +5076,15 @@
           <cell r="J133">
             <v>132</v>
           </cell>
+          <cell r="K133"/>
           <cell r="L133" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M133" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N133"/>
+          <cell r="O133"/>
           <cell r="P133" t="e">
             <v>#N/A</v>
           </cell>
@@ -4712,12 +5099,15 @@
           <cell r="J134">
             <v>133</v>
           </cell>
+          <cell r="K134"/>
           <cell r="L134" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M134" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N134"/>
+          <cell r="O134"/>
           <cell r="P134" t="e">
             <v>#N/A</v>
           </cell>
@@ -4732,12 +5122,15 @@
           <cell r="J135">
             <v>134</v>
           </cell>
+          <cell r="K135"/>
           <cell r="L135" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M135" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N135"/>
+          <cell r="O135"/>
           <cell r="P135" t="e">
             <v>#N/A</v>
           </cell>
@@ -4752,12 +5145,15 @@
           <cell r="J136">
             <v>135</v>
           </cell>
+          <cell r="K136"/>
           <cell r="L136" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M136" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N136"/>
+          <cell r="O136"/>
           <cell r="P136" t="e">
             <v>#N/A</v>
           </cell>
@@ -4772,12 +5168,15 @@
           <cell r="J137">
             <v>136</v>
           </cell>
+          <cell r="K137"/>
           <cell r="L137" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M137" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N137"/>
+          <cell r="O137"/>
           <cell r="P137" t="e">
             <v>#N/A</v>
           </cell>
@@ -4792,12 +5191,15 @@
           <cell r="J138">
             <v>137</v>
           </cell>
+          <cell r="K138"/>
           <cell r="L138" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M138" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N138"/>
+          <cell r="O138"/>
           <cell r="P138" t="e">
             <v>#N/A</v>
           </cell>
@@ -4812,12 +5214,15 @@
           <cell r="J139">
             <v>138</v>
           </cell>
+          <cell r="K139"/>
           <cell r="L139" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M139" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N139"/>
+          <cell r="O139"/>
           <cell r="P139" t="e">
             <v>#N/A</v>
           </cell>
@@ -4832,12 +5237,15 @@
           <cell r="J140">
             <v>139</v>
           </cell>
+          <cell r="K140"/>
           <cell r="L140" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M140" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N140"/>
+          <cell r="O140"/>
           <cell r="P140" t="e">
             <v>#N/A</v>
           </cell>
@@ -4852,12 +5260,15 @@
           <cell r="J141">
             <v>140</v>
           </cell>
+          <cell r="K141"/>
           <cell r="L141" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M141" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N141"/>
+          <cell r="O141"/>
           <cell r="P141" t="e">
             <v>#N/A</v>
           </cell>
@@ -4872,12 +5283,15 @@
           <cell r="J142">
             <v>141</v>
           </cell>
+          <cell r="K142"/>
           <cell r="L142" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M142" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N142"/>
+          <cell r="O142"/>
           <cell r="P142" t="e">
             <v>#N/A</v>
           </cell>
@@ -4892,12 +5306,15 @@
           <cell r="J143">
             <v>142</v>
           </cell>
+          <cell r="K143"/>
           <cell r="L143" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M143" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N143"/>
+          <cell r="O143"/>
           <cell r="P143" t="e">
             <v>#N/A</v>
           </cell>
@@ -4912,12 +5329,14 @@
           <cell r="J144">
             <v>143</v>
           </cell>
+          <cell r="K144"/>
           <cell r="L144" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M144" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N144"/>
           <cell r="O144" t="str">
             <v>Gazipur</v>
           </cell>
@@ -4935,12 +5354,15 @@
           <cell r="J145">
             <v>144</v>
           </cell>
+          <cell r="K145"/>
           <cell r="L145" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M145" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N145"/>
+          <cell r="O145"/>
           <cell r="P145" t="e">
             <v>#N/A</v>
           </cell>
@@ -4955,12 +5377,14 @@
           <cell r="J146">
             <v>145</v>
           </cell>
+          <cell r="K146"/>
           <cell r="L146" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M146" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N146"/>
           <cell r="O146" t="str">
             <v>Gazipur</v>
           </cell>
@@ -4978,12 +5402,15 @@
           <cell r="J147">
             <v>146</v>
           </cell>
+          <cell r="K147"/>
           <cell r="L147" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M147" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N147"/>
+          <cell r="O147"/>
           <cell r="P147" t="e">
             <v>#N/A</v>
           </cell>
@@ -4998,12 +5425,15 @@
           <cell r="J148">
             <v>147</v>
           </cell>
+          <cell r="K148"/>
           <cell r="L148" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M148" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N148"/>
+          <cell r="O148"/>
           <cell r="P148" t="e">
             <v>#N/A</v>
           </cell>
@@ -5018,12 +5448,15 @@
           <cell r="J149">
             <v>148</v>
           </cell>
+          <cell r="K149"/>
           <cell r="L149" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M149" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N149"/>
+          <cell r="O149"/>
           <cell r="P149" t="e">
             <v>#N/A</v>
           </cell>
@@ -5038,12 +5471,15 @@
           <cell r="J150">
             <v>149</v>
           </cell>
+          <cell r="K150"/>
           <cell r="L150" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M150" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N150"/>
+          <cell r="O150"/>
           <cell r="P150" t="e">
             <v>#N/A</v>
           </cell>
@@ -5058,12 +5494,15 @@
           <cell r="J151">
             <v>150</v>
           </cell>
+          <cell r="K151"/>
           <cell r="L151" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M151" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N151"/>
+          <cell r="O151"/>
           <cell r="P151" t="e">
             <v>#N/A</v>
           </cell>
@@ -5078,12 +5517,15 @@
           <cell r="J152">
             <v>151</v>
           </cell>
+          <cell r="K152"/>
           <cell r="L152" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M152" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N152"/>
+          <cell r="O152"/>
           <cell r="P152" t="e">
             <v>#N/A</v>
           </cell>
@@ -5098,12 +5540,15 @@
           <cell r="J153">
             <v>152</v>
           </cell>
+          <cell r="K153"/>
           <cell r="L153" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M153" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N153"/>
+          <cell r="O153"/>
           <cell r="P153" t="e">
             <v>#N/A</v>
           </cell>
@@ -5118,12 +5563,15 @@
           <cell r="J154">
             <v>153</v>
           </cell>
+          <cell r="K154"/>
           <cell r="L154" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M154" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N154"/>
+          <cell r="O154"/>
           <cell r="P154" t="e">
             <v>#N/A</v>
           </cell>
@@ -5138,12 +5586,15 @@
           <cell r="J155">
             <v>154</v>
           </cell>
+          <cell r="K155"/>
           <cell r="L155" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M155" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N155"/>
+          <cell r="O155"/>
           <cell r="P155" t="e">
             <v>#N/A</v>
           </cell>
@@ -5158,12 +5609,15 @@
           <cell r="J156">
             <v>155</v>
           </cell>
+          <cell r="K156"/>
           <cell r="L156" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M156" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N156"/>
+          <cell r="O156"/>
           <cell r="P156" t="e">
             <v>#N/A</v>
           </cell>
@@ -5178,12 +5632,15 @@
           <cell r="J157">
             <v>156</v>
           </cell>
+          <cell r="K157"/>
           <cell r="L157" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M157" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N157"/>
+          <cell r="O157"/>
           <cell r="P157" t="e">
             <v>#N/A</v>
           </cell>
@@ -5198,12 +5655,15 @@
           <cell r="J158">
             <v>157</v>
           </cell>
+          <cell r="K158"/>
           <cell r="L158" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M158" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N158"/>
+          <cell r="O158"/>
           <cell r="P158" t="e">
             <v>#N/A</v>
           </cell>
@@ -5218,12 +5678,15 @@
           <cell r="J159">
             <v>158</v>
           </cell>
+          <cell r="K159"/>
           <cell r="L159" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M159" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N159"/>
+          <cell r="O159"/>
           <cell r="P159" t="e">
             <v>#N/A</v>
           </cell>
@@ -5238,12 +5701,15 @@
           <cell r="J160">
             <v>159</v>
           </cell>
+          <cell r="K160"/>
           <cell r="L160" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M160" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N160"/>
+          <cell r="O160"/>
           <cell r="P160" t="e">
             <v>#N/A</v>
           </cell>
@@ -5258,12 +5724,15 @@
           <cell r="J161">
             <v>160</v>
           </cell>
+          <cell r="K161"/>
           <cell r="L161" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M161" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N161"/>
+          <cell r="O161"/>
           <cell r="P161" t="e">
             <v>#N/A</v>
           </cell>
@@ -5278,12 +5747,15 @@
           <cell r="J162">
             <v>161</v>
           </cell>
+          <cell r="K162"/>
           <cell r="L162" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M162" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N162"/>
+          <cell r="O162"/>
           <cell r="P162" t="e">
             <v>#N/A</v>
           </cell>
@@ -5298,12 +5770,15 @@
           <cell r="J163">
             <v>162</v>
           </cell>
+          <cell r="K163"/>
           <cell r="L163" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M163" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N163"/>
+          <cell r="O163"/>
           <cell r="P163" t="e">
             <v>#N/A</v>
           </cell>
@@ -5318,12 +5793,15 @@
           <cell r="J164">
             <v>163</v>
           </cell>
+          <cell r="K164"/>
           <cell r="L164" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M164" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N164"/>
+          <cell r="O164"/>
           <cell r="P164" t="e">
             <v>#N/A</v>
           </cell>
@@ -5338,12 +5816,15 @@
           <cell r="J165">
             <v>164</v>
           </cell>
+          <cell r="K165"/>
           <cell r="L165" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M165" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N165"/>
+          <cell r="O165"/>
           <cell r="P165" t="e">
             <v>#N/A</v>
           </cell>
@@ -5358,12 +5839,15 @@
           <cell r="J166">
             <v>165</v>
           </cell>
+          <cell r="K166"/>
           <cell r="L166" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M166" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N166"/>
+          <cell r="O166"/>
           <cell r="P166" t="e">
             <v>#N/A</v>
           </cell>
@@ -5378,12 +5862,15 @@
           <cell r="J167">
             <v>166</v>
           </cell>
+          <cell r="K167"/>
           <cell r="L167" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M167" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N167"/>
+          <cell r="O167"/>
           <cell r="P167" t="e">
             <v>#N/A</v>
           </cell>
@@ -5398,12 +5885,15 @@
           <cell r="J168">
             <v>167</v>
           </cell>
+          <cell r="K168"/>
           <cell r="L168" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M168" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N168"/>
+          <cell r="O168"/>
           <cell r="P168" t="e">
             <v>#N/A</v>
           </cell>
@@ -5418,12 +5908,15 @@
           <cell r="J169">
             <v>168</v>
           </cell>
+          <cell r="K169"/>
           <cell r="L169" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M169" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N169"/>
+          <cell r="O169"/>
           <cell r="P169" t="e">
             <v>#N/A</v>
           </cell>
@@ -5438,12 +5931,15 @@
           <cell r="J170">
             <v>169</v>
           </cell>
+          <cell r="K170"/>
           <cell r="L170" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M170" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N170"/>
+          <cell r="O170"/>
           <cell r="P170" t="e">
             <v>#N/A</v>
           </cell>
@@ -5458,12 +5954,15 @@
           <cell r="J171">
             <v>170</v>
           </cell>
+          <cell r="K171"/>
           <cell r="L171" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M171" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N171"/>
+          <cell r="O171"/>
           <cell r="P171" t="e">
             <v>#N/A</v>
           </cell>
@@ -5478,12 +5977,15 @@
           <cell r="J172">
             <v>171</v>
           </cell>
+          <cell r="K172"/>
           <cell r="L172" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M172" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N172"/>
+          <cell r="O172"/>
           <cell r="P172" t="e">
             <v>#N/A</v>
           </cell>
@@ -5498,12 +6000,15 @@
           <cell r="J173">
             <v>172</v>
           </cell>
+          <cell r="K173"/>
           <cell r="L173" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M173" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N173"/>
+          <cell r="O173"/>
           <cell r="P173" t="e">
             <v>#N/A</v>
           </cell>
@@ -5518,12 +6023,15 @@
           <cell r="J174">
             <v>173</v>
           </cell>
+          <cell r="K174"/>
           <cell r="L174" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M174" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N174"/>
+          <cell r="O174"/>
           <cell r="P174" t="e">
             <v>#N/A</v>
           </cell>
@@ -5538,12 +6046,15 @@
           <cell r="J175">
             <v>174</v>
           </cell>
+          <cell r="K175"/>
           <cell r="L175" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M175" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N175"/>
+          <cell r="O175"/>
           <cell r="P175" t="e">
             <v>#N/A</v>
           </cell>
@@ -5558,12 +6069,14 @@
           <cell r="J176">
             <v>175</v>
           </cell>
+          <cell r="K176"/>
           <cell r="L176" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M176" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N176"/>
           <cell r="O176" t="str">
             <v>Manikganj</v>
           </cell>
@@ -5581,12 +6094,15 @@
           <cell r="J177">
             <v>176</v>
           </cell>
+          <cell r="K177"/>
           <cell r="L177" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M177" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N177"/>
+          <cell r="O177"/>
           <cell r="P177" t="e">
             <v>#N/A</v>
           </cell>
@@ -5601,12 +6117,15 @@
           <cell r="J178">
             <v>177</v>
           </cell>
+          <cell r="K178"/>
           <cell r="L178" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M178" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N178"/>
+          <cell r="O178"/>
           <cell r="P178" t="e">
             <v>#N/A</v>
           </cell>
@@ -5621,12 +6140,15 @@
           <cell r="J179">
             <v>178</v>
           </cell>
+          <cell r="K179"/>
           <cell r="L179" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M179" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N179"/>
+          <cell r="O179"/>
           <cell r="P179" t="e">
             <v>#N/A</v>
           </cell>
@@ -5641,12 +6163,15 @@
           <cell r="J180">
             <v>179</v>
           </cell>
+          <cell r="K180"/>
           <cell r="L180" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M180" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N180"/>
+          <cell r="O180"/>
           <cell r="P180" t="e">
             <v>#N/A</v>
           </cell>
@@ -5661,12 +6186,15 @@
           <cell r="J181">
             <v>180</v>
           </cell>
+          <cell r="K181"/>
           <cell r="L181" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M181" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N181"/>
+          <cell r="O181"/>
           <cell r="P181" t="e">
             <v>#N/A</v>
           </cell>
@@ -5681,12 +6209,15 @@
           <cell r="J182">
             <v>181</v>
           </cell>
+          <cell r="K182"/>
           <cell r="L182" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M182" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N182"/>
+          <cell r="O182"/>
           <cell r="P182" t="e">
             <v>#N/A</v>
           </cell>
@@ -5701,12 +6232,15 @@
           <cell r="J183">
             <v>182</v>
           </cell>
+          <cell r="K183"/>
           <cell r="L183" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M183" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N183"/>
+          <cell r="O183"/>
           <cell r="P183" t="e">
             <v>#N/A</v>
           </cell>
@@ -5721,12 +6255,15 @@
           <cell r="J184">
             <v>183</v>
           </cell>
+          <cell r="K184"/>
           <cell r="L184" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M184" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N184"/>
+          <cell r="O184"/>
           <cell r="P184" t="e">
             <v>#N/A</v>
           </cell>
@@ -5741,12 +6278,15 @@
           <cell r="J185">
             <v>184</v>
           </cell>
+          <cell r="K185"/>
           <cell r="L185" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M185" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N185"/>
+          <cell r="O185"/>
           <cell r="P185" t="e">
             <v>#N/A</v>
           </cell>
@@ -5761,12 +6301,15 @@
           <cell r="J186">
             <v>185</v>
           </cell>
+          <cell r="K186"/>
           <cell r="L186" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M186" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N186"/>
+          <cell r="O186"/>
           <cell r="P186" t="e">
             <v>#N/A</v>
           </cell>
@@ -5781,12 +6324,15 @@
           <cell r="J187">
             <v>186</v>
           </cell>
+          <cell r="K187"/>
           <cell r="L187" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M187" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N187"/>
+          <cell r="O187"/>
           <cell r="P187" t="e">
             <v>#N/A</v>
           </cell>
@@ -5801,12 +6347,15 @@
           <cell r="J188">
             <v>187</v>
           </cell>
+          <cell r="K188"/>
           <cell r="L188" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M188" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N188"/>
+          <cell r="O188"/>
           <cell r="P188" t="e">
             <v>#N/A</v>
           </cell>
@@ -5821,12 +6370,15 @@
           <cell r="J189">
             <v>188</v>
           </cell>
+          <cell r="K189"/>
           <cell r="L189" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M189" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N189"/>
+          <cell r="O189"/>
           <cell r="P189" t="e">
             <v>#N/A</v>
           </cell>
@@ -5841,12 +6393,15 @@
           <cell r="J190">
             <v>189</v>
           </cell>
+          <cell r="K190"/>
           <cell r="L190" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M190" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N190"/>
+          <cell r="O190"/>
           <cell r="P190" t="e">
             <v>#N/A</v>
           </cell>
@@ -5861,12 +6416,15 @@
           <cell r="J191">
             <v>190</v>
           </cell>
+          <cell r="K191"/>
           <cell r="L191" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M191" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N191"/>
+          <cell r="O191"/>
           <cell r="P191" t="e">
             <v>#N/A</v>
           </cell>
@@ -5881,12 +6439,15 @@
           <cell r="J192">
             <v>191</v>
           </cell>
+          <cell r="K192"/>
           <cell r="L192" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M192" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N192"/>
+          <cell r="O192"/>
           <cell r="P192" t="e">
             <v>#N/A</v>
           </cell>
@@ -5901,12 +6462,15 @@
           <cell r="J193">
             <v>192</v>
           </cell>
+          <cell r="K193"/>
           <cell r="L193" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M193" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N193"/>
+          <cell r="O193"/>
           <cell r="P193" t="e">
             <v>#N/A</v>
           </cell>
@@ -5921,12 +6485,15 @@
           <cell r="J194">
             <v>193</v>
           </cell>
+          <cell r="K194"/>
           <cell r="L194" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M194" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N194"/>
+          <cell r="O194"/>
           <cell r="P194" t="e">
             <v>#N/A</v>
           </cell>
@@ -5941,12 +6508,15 @@
           <cell r="J195">
             <v>194</v>
           </cell>
+          <cell r="K195"/>
           <cell r="L195" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M195" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N195"/>
+          <cell r="O195"/>
           <cell r="P195" t="e">
             <v>#N/A</v>
           </cell>
@@ -5961,12 +6531,15 @@
           <cell r="J196">
             <v>195</v>
           </cell>
+          <cell r="K196"/>
           <cell r="L196" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M196" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N196"/>
+          <cell r="O196"/>
           <cell r="P196" t="e">
             <v>#N/A</v>
           </cell>
@@ -5981,12 +6554,15 @@
           <cell r="J197">
             <v>196</v>
           </cell>
+          <cell r="K197"/>
           <cell r="L197" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M197" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N197"/>
+          <cell r="O197"/>
           <cell r="P197" t="e">
             <v>#N/A</v>
           </cell>
@@ -6001,12 +6577,14 @@
           <cell r="J198">
             <v>197</v>
           </cell>
+          <cell r="K198"/>
           <cell r="L198" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M198" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N198"/>
           <cell r="O198" t="str">
             <v>Narsingdi</v>
           </cell>
@@ -6024,12 +6602,15 @@
           <cell r="J199">
             <v>198</v>
           </cell>
+          <cell r="K199"/>
           <cell r="L199" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M199" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N199"/>
+          <cell r="O199"/>
           <cell r="P199" t="e">
             <v>#N/A</v>
           </cell>
@@ -6044,12 +6625,15 @@
           <cell r="J200">
             <v>199</v>
           </cell>
+          <cell r="K200"/>
           <cell r="L200" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M200" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N200"/>
+          <cell r="O200"/>
           <cell r="P200" t="e">
             <v>#N/A</v>
           </cell>
@@ -6064,12 +6648,15 @@
           <cell r="J201">
             <v>200</v>
           </cell>
+          <cell r="K201"/>
           <cell r="L201" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M201" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N201"/>
+          <cell r="O201"/>
           <cell r="P201" t="e">
             <v>#N/A</v>
           </cell>
@@ -6084,12 +6671,15 @@
           <cell r="J202">
             <v>201</v>
           </cell>
+          <cell r="K202"/>
           <cell r="L202" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M202" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N202"/>
+          <cell r="O202"/>
           <cell r="P202" t="e">
             <v>#N/A</v>
           </cell>
@@ -6104,12 +6694,15 @@
           <cell r="J203">
             <v>202</v>
           </cell>
+          <cell r="K203"/>
           <cell r="L203" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M203" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N203"/>
+          <cell r="O203"/>
           <cell r="P203" t="e">
             <v>#N/A</v>
           </cell>
@@ -6124,12 +6717,15 @@
           <cell r="J204">
             <v>203</v>
           </cell>
+          <cell r="K204"/>
           <cell r="L204" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M204" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N204"/>
+          <cell r="O204"/>
           <cell r="P204" t="e">
             <v>#N/A</v>
           </cell>
@@ -6144,12 +6740,15 @@
           <cell r="J205">
             <v>204</v>
           </cell>
+          <cell r="K205"/>
           <cell r="L205" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M205" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N205"/>
+          <cell r="O205"/>
           <cell r="P205" t="e">
             <v>#N/A</v>
           </cell>
@@ -6164,12 +6763,15 @@
           <cell r="J206">
             <v>205</v>
           </cell>
+          <cell r="K206"/>
           <cell r="L206" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M206" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N206"/>
+          <cell r="O206"/>
           <cell r="P206" t="e">
             <v>#N/A</v>
           </cell>
@@ -6184,12 +6786,15 @@
           <cell r="J207">
             <v>206</v>
           </cell>
+          <cell r="K207"/>
           <cell r="L207" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M207" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N207"/>
+          <cell r="O207"/>
           <cell r="P207" t="e">
             <v>#N/A</v>
           </cell>
@@ -6204,12 +6809,15 @@
           <cell r="J208">
             <v>207</v>
           </cell>
+          <cell r="K208"/>
           <cell r="L208" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M208" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N208"/>
+          <cell r="O208"/>
           <cell r="P208" t="e">
             <v>#N/A</v>
           </cell>
@@ -6224,12 +6832,14 @@
           <cell r="J209">
             <v>208</v>
           </cell>
+          <cell r="K209"/>
           <cell r="L209" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M209" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N209"/>
           <cell r="O209" t="str">
             <v>Mymensingh</v>
           </cell>
@@ -6247,12 +6857,15 @@
           <cell r="J210">
             <v>209</v>
           </cell>
+          <cell r="K210"/>
           <cell r="L210" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M210" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N210"/>
+          <cell r="O210"/>
           <cell r="P210" t="e">
             <v>#N/A</v>
           </cell>
@@ -6267,12 +6880,15 @@
           <cell r="J211">
             <v>210</v>
           </cell>
+          <cell r="K211"/>
           <cell r="L211" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M211" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N211"/>
+          <cell r="O211"/>
           <cell r="P211" t="e">
             <v>#N/A</v>
           </cell>
@@ -6287,12 +6903,15 @@
           <cell r="J212">
             <v>211</v>
           </cell>
+          <cell r="K212"/>
           <cell r="L212" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M212" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N212"/>
+          <cell r="O212"/>
           <cell r="P212" t="e">
             <v>#N/A</v>
           </cell>
@@ -6307,12 +6926,15 @@
           <cell r="J213">
             <v>212</v>
           </cell>
+          <cell r="K213"/>
           <cell r="L213" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M213" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N213"/>
+          <cell r="O213"/>
           <cell r="P213" t="e">
             <v>#N/A</v>
           </cell>
@@ -6327,12 +6949,14 @@
           <cell r="J214">
             <v>213</v>
           </cell>
+          <cell r="K214"/>
           <cell r="L214" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M214" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N214"/>
           <cell r="O214" t="str">
             <v>Netrokona</v>
           </cell>
@@ -6350,12 +6974,15 @@
           <cell r="J215">
             <v>214</v>
           </cell>
+          <cell r="K215"/>
           <cell r="L215" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M215" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N215"/>
+          <cell r="O215"/>
           <cell r="P215" t="e">
             <v>#N/A</v>
           </cell>
@@ -6370,12 +6997,15 @@
           <cell r="J216">
             <v>215</v>
           </cell>
+          <cell r="K216"/>
           <cell r="L216" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M216" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N216"/>
+          <cell r="O216"/>
           <cell r="P216" t="e">
             <v>#N/A</v>
           </cell>
@@ -6390,12 +7020,15 @@
           <cell r="J217">
             <v>216</v>
           </cell>
+          <cell r="K217"/>
           <cell r="L217" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M217" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N217"/>
+          <cell r="O217"/>
           <cell r="P217" t="e">
             <v>#N/A</v>
           </cell>
@@ -6410,12 +7043,15 @@
           <cell r="J218">
             <v>217</v>
           </cell>
+          <cell r="K218"/>
           <cell r="L218" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M218" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N218"/>
+          <cell r="O218"/>
           <cell r="P218" t="e">
             <v>#N/A</v>
           </cell>
@@ -6430,12 +7066,15 @@
           <cell r="J219">
             <v>218</v>
           </cell>
+          <cell r="K219"/>
           <cell r="L219" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M219" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N219"/>
+          <cell r="O219"/>
           <cell r="P219" t="e">
             <v>#N/A</v>
           </cell>
@@ -6450,12 +7089,15 @@
           <cell r="J220">
             <v>219</v>
           </cell>
+          <cell r="K220"/>
           <cell r="L220" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M220" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N220"/>
+          <cell r="O220"/>
           <cell r="P220" t="e">
             <v>#N/A</v>
           </cell>
@@ -6470,12 +7112,15 @@
           <cell r="J221">
             <v>220</v>
           </cell>
+          <cell r="K221"/>
           <cell r="L221" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M221" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N221"/>
+          <cell r="O221"/>
           <cell r="P221" t="e">
             <v>#N/A</v>
           </cell>
@@ -6490,12 +7135,15 @@
           <cell r="J222">
             <v>221</v>
           </cell>
+          <cell r="K222"/>
           <cell r="L222" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M222" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N222"/>
+          <cell r="O222"/>
           <cell r="P222" t="e">
             <v>#N/A</v>
           </cell>
@@ -6510,12 +7158,15 @@
           <cell r="J223">
             <v>222</v>
           </cell>
+          <cell r="K223"/>
           <cell r="L223" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M223" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N223"/>
+          <cell r="O223"/>
           <cell r="P223" t="e">
             <v>#N/A</v>
           </cell>
@@ -6530,12 +7181,15 @@
           <cell r="J224">
             <v>223</v>
           </cell>
+          <cell r="K224"/>
           <cell r="L224" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M224" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N224"/>
+          <cell r="O224"/>
           <cell r="P224" t="e">
             <v>#N/A</v>
           </cell>
@@ -6550,12 +7204,15 @@
           <cell r="J225">
             <v>224</v>
           </cell>
+          <cell r="K225"/>
           <cell r="L225" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M225" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N225"/>
+          <cell r="O225"/>
           <cell r="P225" t="e">
             <v>#N/A</v>
           </cell>
@@ -6570,12 +7227,15 @@
           <cell r="J226">
             <v>225</v>
           </cell>
+          <cell r="K226"/>
           <cell r="L226" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M226" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N226"/>
+          <cell r="O226"/>
           <cell r="P226" t="e">
             <v>#N/A</v>
           </cell>
@@ -6590,12 +7250,15 @@
           <cell r="J227">
             <v>226</v>
           </cell>
+          <cell r="K227"/>
           <cell r="L227" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M227" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N227"/>
+          <cell r="O227"/>
           <cell r="P227" t="e">
             <v>#N/A</v>
           </cell>
@@ -6610,12 +7273,15 @@
           <cell r="J228">
             <v>227</v>
           </cell>
+          <cell r="K228"/>
           <cell r="L228" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M228" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N228"/>
+          <cell r="O228"/>
           <cell r="P228" t="e">
             <v>#N/A</v>
           </cell>
@@ -6630,12 +7296,15 @@
           <cell r="J229">
             <v>228</v>
           </cell>
+          <cell r="K229"/>
           <cell r="L229" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M229" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N229"/>
+          <cell r="O229"/>
           <cell r="P229" t="e">
             <v>#N/A</v>
           </cell>
@@ -6650,12 +7319,15 @@
           <cell r="J230">
             <v>229</v>
           </cell>
+          <cell r="K230"/>
           <cell r="L230" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M230" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N230"/>
+          <cell r="O230"/>
           <cell r="P230" t="e">
             <v>#N/A</v>
           </cell>
@@ -6670,12 +7342,15 @@
           <cell r="J231">
             <v>230</v>
           </cell>
+          <cell r="K231"/>
           <cell r="L231" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M231" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N231"/>
+          <cell r="O231"/>
           <cell r="P231" t="e">
             <v>#N/A</v>
           </cell>
@@ -6690,12 +7365,15 @@
           <cell r="J232">
             <v>231</v>
           </cell>
+          <cell r="K232"/>
           <cell r="L232" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M232" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N232"/>
+          <cell r="O232"/>
           <cell r="P232" t="e">
             <v>#N/A</v>
           </cell>
@@ -6710,12 +7388,15 @@
           <cell r="J233">
             <v>232</v>
           </cell>
+          <cell r="K233"/>
           <cell r="L233" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M233" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N233"/>
+          <cell r="O233"/>
           <cell r="P233" t="e">
             <v>#N/A</v>
           </cell>
@@ -6730,12 +7411,15 @@
           <cell r="J234">
             <v>233</v>
           </cell>
+          <cell r="K234"/>
           <cell r="L234" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M234" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N234"/>
+          <cell r="O234"/>
           <cell r="P234" t="e">
             <v>#N/A</v>
           </cell>
@@ -6750,12 +7434,15 @@
           <cell r="J235">
             <v>234</v>
           </cell>
+          <cell r="K235"/>
           <cell r="L235" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M235" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N235"/>
+          <cell r="O235"/>
           <cell r="P235" t="e">
             <v>#N/A</v>
           </cell>
@@ -6770,12 +7457,15 @@
           <cell r="J236">
             <v>235</v>
           </cell>
+          <cell r="K236"/>
           <cell r="L236" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M236" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N236"/>
+          <cell r="O236"/>
           <cell r="P236" t="e">
             <v>#N/A</v>
           </cell>
@@ -6790,12 +7480,15 @@
           <cell r="J237">
             <v>236</v>
           </cell>
+          <cell r="K237"/>
           <cell r="L237" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M237" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N237"/>
+          <cell r="O237"/>
           <cell r="P237" t="e">
             <v>#N/A</v>
           </cell>
@@ -6810,12 +7503,15 @@
           <cell r="J238">
             <v>237</v>
           </cell>
+          <cell r="K238"/>
           <cell r="L238" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M238" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N238"/>
+          <cell r="O238"/>
           <cell r="P238" t="e">
             <v>#N/A</v>
           </cell>
@@ -6830,12 +7526,15 @@
           <cell r="J239">
             <v>238</v>
           </cell>
+          <cell r="K239"/>
           <cell r="L239" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M239" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N239"/>
+          <cell r="O239"/>
           <cell r="P239" t="e">
             <v>#N/A</v>
           </cell>
@@ -6850,12 +7549,15 @@
           <cell r="J240">
             <v>239</v>
           </cell>
+          <cell r="K240"/>
           <cell r="L240" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M240" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N240"/>
+          <cell r="O240"/>
           <cell r="P240" t="e">
             <v>#N/A</v>
           </cell>
@@ -6870,12 +7572,15 @@
           <cell r="J241">
             <v>240</v>
           </cell>
+          <cell r="K241"/>
           <cell r="L241" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M241" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N241"/>
+          <cell r="O241"/>
           <cell r="P241" t="e">
             <v>#N/A</v>
           </cell>
@@ -6890,12 +7595,15 @@
           <cell r="J242">
             <v>241</v>
           </cell>
+          <cell r="K242"/>
           <cell r="L242" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M242" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N242"/>
+          <cell r="O242"/>
           <cell r="P242" t="e">
             <v>#N/A</v>
           </cell>
@@ -6910,12 +7618,15 @@
           <cell r="J243">
             <v>242</v>
           </cell>
+          <cell r="K243"/>
           <cell r="L243" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M243" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N243"/>
+          <cell r="O243"/>
           <cell r="P243" t="e">
             <v>#N/A</v>
           </cell>
@@ -6930,12 +7641,15 @@
           <cell r="J244">
             <v>243</v>
           </cell>
+          <cell r="K244"/>
           <cell r="L244" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M244" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N244"/>
+          <cell r="O244"/>
           <cell r="P244" t="e">
             <v>#N/A</v>
           </cell>
@@ -6950,12 +7664,15 @@
           <cell r="J245">
             <v>244</v>
           </cell>
+          <cell r="K245"/>
           <cell r="L245" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M245" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N245"/>
+          <cell r="O245"/>
           <cell r="P245" t="e">
             <v>#N/A</v>
           </cell>
@@ -6970,12 +7687,15 @@
           <cell r="J246">
             <v>245</v>
           </cell>
+          <cell r="K246"/>
           <cell r="L246" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M246" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N246"/>
+          <cell r="O246"/>
           <cell r="P246" t="e">
             <v>#N/A</v>
           </cell>
@@ -6990,12 +7710,15 @@
           <cell r="J247">
             <v>246</v>
           </cell>
+          <cell r="K247"/>
           <cell r="L247" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M247" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N247"/>
+          <cell r="O247"/>
           <cell r="P247">
             <v>0</v>
           </cell>
@@ -7010,12 +7733,15 @@
           <cell r="J248">
             <v>247</v>
           </cell>
+          <cell r="K248"/>
           <cell r="L248" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M248" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N248"/>
+          <cell r="O248"/>
           <cell r="P248">
             <v>0</v>
           </cell>
@@ -7030,12 +7756,15 @@
           <cell r="J249">
             <v>248</v>
           </cell>
+          <cell r="K249"/>
           <cell r="L249" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M249" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N249"/>
+          <cell r="O249"/>
           <cell r="P249">
             <v>0</v>
           </cell>
@@ -7050,12 +7779,14 @@
           <cell r="J250">
             <v>249</v>
           </cell>
+          <cell r="K250"/>
           <cell r="L250" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M250" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N250"/>
           <cell r="O250" t="str">
             <v>Bagerhat</v>
           </cell>
@@ -7073,12 +7804,15 @@
           <cell r="J251">
             <v>250</v>
           </cell>
+          <cell r="K251"/>
           <cell r="L251" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M251" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N251"/>
+          <cell r="O251"/>
           <cell r="P251">
             <v>0</v>
           </cell>
@@ -7093,12 +7827,15 @@
           <cell r="J252">
             <v>251</v>
           </cell>
+          <cell r="K252"/>
           <cell r="L252" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M252" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N252"/>
+          <cell r="O252"/>
           <cell r="P252">
             <v>0</v>
           </cell>
@@ -7113,12 +7850,15 @@
           <cell r="J253">
             <v>252</v>
           </cell>
+          <cell r="K253"/>
           <cell r="L253" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M253" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N253"/>
+          <cell r="O253"/>
           <cell r="P253">
             <v>0</v>
           </cell>
@@ -7133,12 +7873,15 @@
           <cell r="J254">
             <v>253</v>
           </cell>
+          <cell r="K254"/>
           <cell r="L254" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M254" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N254"/>
+          <cell r="O254"/>
           <cell r="P254">
             <v>0</v>
           </cell>
@@ -7153,12 +7896,15 @@
           <cell r="J255">
             <v>254</v>
           </cell>
+          <cell r="K255"/>
           <cell r="L255" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M255" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N255"/>
+          <cell r="O255"/>
           <cell r="P255">
             <v>0</v>
           </cell>
@@ -7173,12 +7919,15 @@
           <cell r="J256">
             <v>255</v>
           </cell>
+          <cell r="K256"/>
           <cell r="L256" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M256" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N256"/>
+          <cell r="O256"/>
           <cell r="P256">
             <v>0</v>
           </cell>
@@ -7193,12 +7942,15 @@
           <cell r="J257">
             <v>256</v>
           </cell>
+          <cell r="K257"/>
           <cell r="L257" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M257" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N257"/>
+          <cell r="O257"/>
           <cell r="P257">
             <v>0</v>
           </cell>
@@ -7213,12 +7965,15 @@
           <cell r="J258">
             <v>257</v>
           </cell>
+          <cell r="K258"/>
           <cell r="L258" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M258" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N258"/>
+          <cell r="O258"/>
           <cell r="P258">
             <v>0</v>
           </cell>
@@ -7233,12 +7988,15 @@
           <cell r="J259">
             <v>258</v>
           </cell>
+          <cell r="K259"/>
           <cell r="L259" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M259" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N259"/>
+          <cell r="O259"/>
           <cell r="P259">
             <v>0</v>
           </cell>
@@ -7253,12 +8011,15 @@
           <cell r="J260">
             <v>259</v>
           </cell>
+          <cell r="K260"/>
           <cell r="L260" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M260" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N260"/>
+          <cell r="O260"/>
           <cell r="P260">
             <v>0</v>
           </cell>
@@ -7273,12 +8034,15 @@
           <cell r="J261">
             <v>260</v>
           </cell>
+          <cell r="K261"/>
           <cell r="L261" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M261" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N261"/>
+          <cell r="O261"/>
           <cell r="P261">
             <v>0</v>
           </cell>
@@ -7293,12 +8057,15 @@
           <cell r="J262">
             <v>261</v>
           </cell>
+          <cell r="K262"/>
           <cell r="L262" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M262" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N262"/>
+          <cell r="O262"/>
           <cell r="P262">
             <v>0</v>
           </cell>
@@ -7313,12 +8080,15 @@
           <cell r="J263">
             <v>262</v>
           </cell>
+          <cell r="K263"/>
           <cell r="L263" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M263" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N263"/>
+          <cell r="O263"/>
           <cell r="P263">
             <v>0</v>
           </cell>
@@ -7333,12 +8103,15 @@
           <cell r="J264">
             <v>263</v>
           </cell>
+          <cell r="K264"/>
           <cell r="L264" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M264" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N264"/>
+          <cell r="O264"/>
           <cell r="P264">
             <v>0</v>
           </cell>
@@ -7353,12 +8126,15 @@
           <cell r="J265">
             <v>264</v>
           </cell>
+          <cell r="K265"/>
           <cell r="L265" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M265" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N265"/>
+          <cell r="O265"/>
           <cell r="P265">
             <v>0</v>
           </cell>
@@ -7373,12 +8149,15 @@
           <cell r="J266">
             <v>265</v>
           </cell>
+          <cell r="K266"/>
           <cell r="L266" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M266" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N266"/>
+          <cell r="O266"/>
           <cell r="P266">
             <v>0</v>
           </cell>
@@ -7393,12 +8172,15 @@
           <cell r="J267">
             <v>266</v>
           </cell>
+          <cell r="K267"/>
           <cell r="L267" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M267" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N267"/>
+          <cell r="O267"/>
           <cell r="P267">
             <v>0</v>
           </cell>
@@ -7413,12 +8195,15 @@
           <cell r="J268">
             <v>267</v>
           </cell>
+          <cell r="K268"/>
           <cell r="L268" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M268" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N268"/>
+          <cell r="O268"/>
           <cell r="P268">
             <v>0</v>
           </cell>
@@ -7433,12 +8218,14 @@
           <cell r="J269">
             <v>268</v>
           </cell>
+          <cell r="K269"/>
           <cell r="L269" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M269" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N269"/>
           <cell r="O269" t="str">
             <v>Jhenaidaha</v>
           </cell>
@@ -7456,12 +8243,15 @@
           <cell r="J270">
             <v>269</v>
           </cell>
+          <cell r="K270"/>
           <cell r="L270" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M270" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N270"/>
+          <cell r="O270"/>
           <cell r="P270">
             <v>0</v>
           </cell>
@@ -7476,12 +8266,15 @@
           <cell r="J271">
             <v>270</v>
           </cell>
+          <cell r="K271"/>
           <cell r="L271" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M271" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N271"/>
+          <cell r="O271"/>
           <cell r="P271">
             <v>0</v>
           </cell>
@@ -7496,12 +8289,15 @@
           <cell r="J272">
             <v>271</v>
           </cell>
+          <cell r="K272"/>
           <cell r="L272" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M272" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N272"/>
+          <cell r="O272"/>
           <cell r="P272">
             <v>0</v>
           </cell>
@@ -7516,12 +8312,15 @@
           <cell r="J273">
             <v>272</v>
           </cell>
+          <cell r="K273"/>
           <cell r="L273" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M273" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N273"/>
+          <cell r="O273"/>
           <cell r="P273">
             <v>0</v>
           </cell>
@@ -7536,12 +8335,15 @@
           <cell r="J274">
             <v>273</v>
           </cell>
+          <cell r="K274"/>
           <cell r="L274" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M274" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N274"/>
+          <cell r="O274"/>
           <cell r="P274">
             <v>0</v>
           </cell>
@@ -7556,12 +8358,15 @@
           <cell r="J275">
             <v>274</v>
           </cell>
+          <cell r="K275"/>
           <cell r="L275" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M275" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N275"/>
+          <cell r="O275"/>
           <cell r="P275">
             <v>0</v>
           </cell>
@@ -7576,12 +8381,15 @@
           <cell r="J276">
             <v>275</v>
           </cell>
+          <cell r="K276"/>
           <cell r="L276" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M276" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N276"/>
+          <cell r="O276"/>
           <cell r="P276">
             <v>0</v>
           </cell>
@@ -7596,12 +8404,14 @@
           <cell r="J277">
             <v>276</v>
           </cell>
+          <cell r="K277"/>
           <cell r="L277" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M277" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N277"/>
           <cell r="O277" t="str">
             <v>Khulna</v>
           </cell>
@@ -7619,12 +8429,15 @@
           <cell r="J278">
             <v>277</v>
           </cell>
+          <cell r="K278"/>
           <cell r="L278" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M278" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N278"/>
+          <cell r="O278"/>
           <cell r="P278">
             <v>0</v>
           </cell>
@@ -7639,12 +8452,15 @@
           <cell r="J279">
             <v>278</v>
           </cell>
+          <cell r="K279"/>
           <cell r="L279" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M279" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N279"/>
+          <cell r="O279"/>
           <cell r="P279">
             <v>0</v>
           </cell>
@@ -7659,12 +8475,15 @@
           <cell r="J280">
             <v>279</v>
           </cell>
+          <cell r="K280"/>
           <cell r="L280" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M280" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N280"/>
+          <cell r="O280"/>
           <cell r="P280">
             <v>0</v>
           </cell>
@@ -7679,12 +8498,15 @@
           <cell r="J281">
             <v>280</v>
           </cell>
+          <cell r="K281"/>
           <cell r="L281" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M281" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N281"/>
+          <cell r="O281"/>
           <cell r="P281">
             <v>0</v>
           </cell>
@@ -7699,12 +8521,15 @@
           <cell r="J282">
             <v>281</v>
           </cell>
+          <cell r="K282"/>
           <cell r="L282" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M282" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N282"/>
+          <cell r="O282"/>
           <cell r="P282">
             <v>0</v>
           </cell>
@@ -7719,12 +8544,15 @@
           <cell r="J283">
             <v>282</v>
           </cell>
+          <cell r="K283"/>
           <cell r="L283" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M283" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N283"/>
+          <cell r="O283"/>
           <cell r="P283">
             <v>0</v>
           </cell>
@@ -7739,12 +8567,14 @@
           <cell r="J284">
             <v>283</v>
           </cell>
+          <cell r="K284"/>
           <cell r="L284" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M284" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N284"/>
           <cell r="O284" t="str">
             <v>Kushtia</v>
           </cell>
@@ -7762,12 +8592,15 @@
           <cell r="J285">
             <v>284</v>
           </cell>
+          <cell r="K285"/>
           <cell r="L285" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M285" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N285"/>
+          <cell r="O285"/>
           <cell r="P285">
             <v>0</v>
           </cell>
@@ -7782,12 +8615,15 @@
           <cell r="J286">
             <v>285</v>
           </cell>
+          <cell r="K286"/>
           <cell r="L286" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M286" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N286"/>
+          <cell r="O286"/>
           <cell r="P286">
             <v>0</v>
           </cell>
@@ -7802,12 +8638,15 @@
           <cell r="J287">
             <v>286</v>
           </cell>
+          <cell r="K287"/>
           <cell r="L287" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M287" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N287"/>
+          <cell r="O287"/>
           <cell r="P287">
             <v>0</v>
           </cell>
@@ -7822,12 +8661,14 @@
           <cell r="J288">
             <v>287</v>
           </cell>
+          <cell r="K288"/>
           <cell r="L288" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M288" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N288"/>
           <cell r="O288" t="str">
             <v>Kushtia</v>
           </cell>
@@ -7845,12 +8686,15 @@
           <cell r="J289">
             <v>288</v>
           </cell>
+          <cell r="K289"/>
           <cell r="L289" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M289" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N289"/>
+          <cell r="O289"/>
           <cell r="P289">
             <v>0</v>
           </cell>
@@ -7865,12 +8709,14 @@
           <cell r="J290">
             <v>289</v>
           </cell>
+          <cell r="K290"/>
           <cell r="L290" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M290" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N290"/>
           <cell r="O290" t="str">
             <v>Magura</v>
           </cell>
@@ -7888,12 +8734,15 @@
           <cell r="J291">
             <v>290</v>
           </cell>
+          <cell r="K291"/>
           <cell r="L291" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M291" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N291"/>
+          <cell r="O291"/>
           <cell r="P291">
             <v>0</v>
           </cell>
@@ -7908,12 +8757,14 @@
           <cell r="J292">
             <v>291</v>
           </cell>
+          <cell r="K292"/>
           <cell r="L292" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M292" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N292"/>
           <cell r="O292" t="str">
             <v>Magura</v>
           </cell>
@@ -7931,12 +8782,15 @@
           <cell r="J293">
             <v>292</v>
           </cell>
+          <cell r="K293"/>
           <cell r="L293" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M293" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N293"/>
+          <cell r="O293"/>
           <cell r="P293">
             <v>0</v>
           </cell>
@@ -7951,12 +8805,15 @@
           <cell r="J294">
             <v>293</v>
           </cell>
+          <cell r="K294"/>
           <cell r="L294" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M294" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N294"/>
+          <cell r="O294"/>
           <cell r="P294">
             <v>0</v>
           </cell>
@@ -7971,12 +8828,15 @@
           <cell r="J295">
             <v>294</v>
           </cell>
+          <cell r="K295"/>
           <cell r="L295" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M295" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N295"/>
+          <cell r="O295"/>
           <cell r="P295">
             <v>0</v>
           </cell>
@@ -7991,12 +8851,14 @@
           <cell r="J296">
             <v>295</v>
           </cell>
+          <cell r="K296"/>
           <cell r="L296" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M296" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N296"/>
           <cell r="O296" t="str">
             <v>Narail</v>
           </cell>
@@ -8014,12 +8876,15 @@
           <cell r="J297">
             <v>296</v>
           </cell>
+          <cell r="K297"/>
           <cell r="L297" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M297" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N297"/>
+          <cell r="O297"/>
           <cell r="P297">
             <v>0</v>
           </cell>
@@ -8034,12 +8899,15 @@
           <cell r="J298">
             <v>297</v>
           </cell>
+          <cell r="K298"/>
           <cell r="L298" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M298" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N298"/>
+          <cell r="O298"/>
           <cell r="P298">
             <v>0</v>
           </cell>
@@ -8054,12 +8922,15 @@
           <cell r="J299">
             <v>298</v>
           </cell>
+          <cell r="K299"/>
           <cell r="L299" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M299" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N299"/>
+          <cell r="O299"/>
           <cell r="P299">
             <v>0</v>
           </cell>
@@ -8074,12 +8945,15 @@
           <cell r="J300">
             <v>299</v>
           </cell>
+          <cell r="K300"/>
           <cell r="L300" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M300" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N300"/>
+          <cell r="O300"/>
           <cell r="P300">
             <v>0</v>
           </cell>
@@ -8094,12 +8968,15 @@
           <cell r="J301">
             <v>300</v>
           </cell>
+          <cell r="K301"/>
           <cell r="L301" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M301" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N301"/>
+          <cell r="O301"/>
           <cell r="P301">
             <v>0</v>
           </cell>
@@ -8114,12 +8991,14 @@
           <cell r="J302">
             <v>301</v>
           </cell>
+          <cell r="K302"/>
           <cell r="L302" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M302" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N302"/>
           <cell r="O302" t="str">
             <v>Satkhira</v>
           </cell>
@@ -8137,12 +9016,15 @@
           <cell r="J303">
             <v>302</v>
           </cell>
+          <cell r="K303"/>
           <cell r="L303" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M303" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N303"/>
+          <cell r="O303"/>
           <cell r="P303">
             <v>0</v>
           </cell>
@@ -8157,12 +9039,15 @@
           <cell r="J304">
             <v>303</v>
           </cell>
+          <cell r="K304"/>
           <cell r="L304" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M304" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N304"/>
+          <cell r="O304"/>
           <cell r="P304">
             <v>0</v>
           </cell>
@@ -8177,12 +9062,15 @@
           <cell r="J305">
             <v>304</v>
           </cell>
+          <cell r="K305"/>
           <cell r="L305" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M305" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N305"/>
+          <cell r="O305"/>
           <cell r="P305">
             <v>0</v>
           </cell>
@@ -8197,12 +9085,15 @@
           <cell r="J306">
             <v>305</v>
           </cell>
+          <cell r="K306"/>
           <cell r="L306" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M306" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N306"/>
+          <cell r="O306"/>
           <cell r="P306" t="e">
             <v>#N/A</v>
           </cell>
@@ -8217,12 +9108,15 @@
           <cell r="J307">
             <v>306</v>
           </cell>
+          <cell r="K307"/>
           <cell r="L307" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M307" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N307"/>
+          <cell r="O307"/>
           <cell r="P307" t="e">
             <v>#N/A</v>
           </cell>
@@ -8237,12 +9131,15 @@
           <cell r="J308">
             <v>307</v>
           </cell>
+          <cell r="K308"/>
           <cell r="L308" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M308" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N308"/>
+          <cell r="O308"/>
           <cell r="P308" t="e">
             <v>#N/A</v>
           </cell>
@@ -8257,12 +9154,15 @@
           <cell r="J309">
             <v>308</v>
           </cell>
+          <cell r="K309"/>
           <cell r="L309" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M309" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N309"/>
+          <cell r="O309"/>
           <cell r="P309" t="e">
             <v>#N/A</v>
           </cell>
@@ -8277,12 +9177,15 @@
           <cell r="J310">
             <v>309</v>
           </cell>
+          <cell r="K310"/>
           <cell r="L310" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M310" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N310"/>
+          <cell r="O310"/>
           <cell r="P310" t="e">
             <v>#N/A</v>
           </cell>
@@ -8297,12 +9200,15 @@
           <cell r="J311">
             <v>310</v>
           </cell>
+          <cell r="K311"/>
           <cell r="L311" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M311" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N311"/>
+          <cell r="O311"/>
           <cell r="P311" t="e">
             <v>#N/A</v>
           </cell>
@@ -8317,12 +9223,15 @@
           <cell r="J312">
             <v>311</v>
           </cell>
+          <cell r="K312"/>
           <cell r="L312" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M312" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N312"/>
+          <cell r="O312"/>
           <cell r="P312" t="e">
             <v>#N/A</v>
           </cell>
@@ -8337,12 +9246,15 @@
           <cell r="J313">
             <v>312</v>
           </cell>
+          <cell r="K313"/>
           <cell r="L313" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M313" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N313"/>
+          <cell r="O313"/>
           <cell r="P313" t="e">
             <v>#N/A</v>
           </cell>
@@ -8357,12 +9269,15 @@
           <cell r="J314">
             <v>313</v>
           </cell>
+          <cell r="K314"/>
           <cell r="L314" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M314" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N314"/>
+          <cell r="O314"/>
           <cell r="P314" t="e">
             <v>#N/A</v>
           </cell>
@@ -8377,12 +9292,14 @@
           <cell r="J315">
             <v>314</v>
           </cell>
+          <cell r="K315"/>
           <cell r="L315" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M315" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N315"/>
           <cell r="O315" t="str">
             <v>Bogra</v>
           </cell>
@@ -8400,12 +9317,15 @@
           <cell r="J316">
             <v>315</v>
           </cell>
+          <cell r="K316"/>
           <cell r="L316" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M316" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N316"/>
+          <cell r="O316"/>
           <cell r="P316" t="e">
             <v>#N/A</v>
           </cell>
@@ -8420,12 +9340,15 @@
           <cell r="J317">
             <v>316</v>
           </cell>
+          <cell r="K317"/>
           <cell r="L317" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M317" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N317"/>
+          <cell r="O317"/>
           <cell r="P317" t="e">
             <v>#N/A</v>
           </cell>
@@ -8440,12 +9363,15 @@
           <cell r="J318">
             <v>317</v>
           </cell>
+          <cell r="K318"/>
           <cell r="L318" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M318" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N318"/>
+          <cell r="O318"/>
           <cell r="P318" t="e">
             <v>#N/A</v>
           </cell>
@@ -8460,12 +9386,15 @@
           <cell r="J319">
             <v>318</v>
           </cell>
+          <cell r="K319"/>
           <cell r="L319" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M319" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N319"/>
+          <cell r="O319"/>
           <cell r="P319" t="e">
             <v>#N/A</v>
           </cell>
@@ -8480,12 +9409,15 @@
           <cell r="J320">
             <v>319</v>
           </cell>
+          <cell r="K320"/>
           <cell r="L320" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M320" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N320"/>
+          <cell r="O320"/>
           <cell r="P320" t="e">
             <v>#N/A</v>
           </cell>
@@ -8500,12 +9432,15 @@
           <cell r="J321">
             <v>320</v>
           </cell>
+          <cell r="K321"/>
           <cell r="L321" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M321" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N321"/>
+          <cell r="O321"/>
           <cell r="P321" t="e">
             <v>#N/A</v>
           </cell>
@@ -8520,12 +9455,15 @@
           <cell r="J322">
             <v>321</v>
           </cell>
+          <cell r="K322"/>
           <cell r="L322" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M322" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N322"/>
+          <cell r="O322"/>
           <cell r="P322" t="e">
             <v>#N/A</v>
           </cell>
@@ -8540,12 +9478,15 @@
           <cell r="J323">
             <v>322</v>
           </cell>
+          <cell r="K323"/>
           <cell r="L323" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M323" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N323"/>
+          <cell r="O323"/>
           <cell r="P323" t="e">
             <v>#N/A</v>
           </cell>
@@ -8560,12 +9501,15 @@
           <cell r="J324">
             <v>323</v>
           </cell>
+          <cell r="K324"/>
           <cell r="L324" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M324" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N324"/>
+          <cell r="O324"/>
           <cell r="P324" t="e">
             <v>#N/A</v>
           </cell>
@@ -8580,12 +9524,15 @@
           <cell r="J325">
             <v>324</v>
           </cell>
+          <cell r="K325"/>
           <cell r="L325" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M325" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N325"/>
+          <cell r="O325"/>
           <cell r="P325" t="e">
             <v>#N/A</v>
           </cell>
@@ -8600,12 +9547,15 @@
           <cell r="J326">
             <v>325</v>
           </cell>
+          <cell r="K326"/>
           <cell r="L326" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M326" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N326"/>
+          <cell r="O326"/>
           <cell r="P326" t="e">
             <v>#N/A</v>
           </cell>
@@ -8620,12 +9570,15 @@
           <cell r="J327">
             <v>326</v>
           </cell>
+          <cell r="K327"/>
           <cell r="L327" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M327" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N327"/>
+          <cell r="O327"/>
           <cell r="P327" t="e">
             <v>#N/A</v>
           </cell>
@@ -8640,12 +9593,15 @@
           <cell r="J328">
             <v>327</v>
           </cell>
+          <cell r="K328"/>
           <cell r="L328" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M328" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N328"/>
+          <cell r="O328"/>
           <cell r="P328" t="e">
             <v>#N/A</v>
           </cell>
@@ -8660,12 +9616,15 @@
           <cell r="J329">
             <v>328</v>
           </cell>
+          <cell r="K329"/>
           <cell r="L329" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M329" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N329"/>
+          <cell r="O329"/>
           <cell r="P329" t="e">
             <v>#N/A</v>
           </cell>
@@ -8680,12 +9639,15 @@
           <cell r="J330">
             <v>329</v>
           </cell>
+          <cell r="K330"/>
           <cell r="L330" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M330" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N330"/>
+          <cell r="O330"/>
           <cell r="P330" t="e">
             <v>#N/A</v>
           </cell>
@@ -8700,12 +9662,15 @@
           <cell r="J331">
             <v>330</v>
           </cell>
+          <cell r="K331"/>
           <cell r="L331" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M331" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N331"/>
+          <cell r="O331"/>
           <cell r="P331" t="e">
             <v>#N/A</v>
           </cell>
@@ -8720,12 +9685,15 @@
           <cell r="J332">
             <v>331</v>
           </cell>
+          <cell r="K332"/>
           <cell r="L332" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M332" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N332"/>
+          <cell r="O332"/>
           <cell r="P332" t="e">
             <v>#N/A</v>
           </cell>
@@ -8740,12 +9708,15 @@
           <cell r="J333">
             <v>332</v>
           </cell>
+          <cell r="K333"/>
           <cell r="L333" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M333" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N333"/>
+          <cell r="O333"/>
           <cell r="P333" t="e">
             <v>#N/A</v>
           </cell>
@@ -8760,12 +9731,15 @@
           <cell r="J334">
             <v>333</v>
           </cell>
+          <cell r="K334"/>
           <cell r="L334" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M334" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N334"/>
+          <cell r="O334"/>
           <cell r="P334" t="e">
             <v>#N/A</v>
           </cell>
@@ -8780,12 +9754,15 @@
           <cell r="J335">
             <v>334</v>
           </cell>
+          <cell r="K335"/>
           <cell r="L335" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M335" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N335"/>
+          <cell r="O335"/>
           <cell r="P335" t="e">
             <v>#N/A</v>
           </cell>
@@ -8800,12 +9777,15 @@
           <cell r="J336">
             <v>335</v>
           </cell>
+          <cell r="K336"/>
           <cell r="L336" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M336" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N336"/>
+          <cell r="O336"/>
           <cell r="P336" t="e">
             <v>#N/A</v>
           </cell>
@@ -8820,12 +9800,15 @@
           <cell r="J337">
             <v>336</v>
           </cell>
+          <cell r="K337"/>
           <cell r="L337" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M337" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N337"/>
+          <cell r="O337"/>
           <cell r="P337" t="e">
             <v>#N/A</v>
           </cell>
@@ -8840,12 +9823,15 @@
           <cell r="J338">
             <v>337</v>
           </cell>
+          <cell r="K338"/>
           <cell r="L338" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M338" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N338"/>
+          <cell r="O338"/>
           <cell r="P338" t="e">
             <v>#N/A</v>
           </cell>
@@ -8860,12 +9846,15 @@
           <cell r="J339">
             <v>338</v>
           </cell>
+          <cell r="K339"/>
           <cell r="L339" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M339" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N339"/>
+          <cell r="O339"/>
           <cell r="P339" t="e">
             <v>#N/A</v>
           </cell>
@@ -8880,12 +9869,15 @@
           <cell r="J340">
             <v>339</v>
           </cell>
+          <cell r="K340"/>
           <cell r="L340" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M340" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N340"/>
+          <cell r="O340"/>
           <cell r="P340" t="e">
             <v>#N/A</v>
           </cell>
@@ -8900,12 +9892,15 @@
           <cell r="J341">
             <v>340</v>
           </cell>
+          <cell r="K341"/>
           <cell r="L341" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M341" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N341"/>
+          <cell r="O341"/>
           <cell r="P341" t="e">
             <v>#N/A</v>
           </cell>
@@ -8920,12 +9915,14 @@
           <cell r="J342">
             <v>341</v>
           </cell>
+          <cell r="K342"/>
           <cell r="L342" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M342" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N342"/>
           <cell r="O342" t="str">
             <v>Nawabganj</v>
           </cell>
@@ -8943,12 +9940,14 @@
           <cell r="J343">
             <v>342</v>
           </cell>
+          <cell r="K343"/>
           <cell r="L343" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M343" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N343"/>
           <cell r="O343" t="str">
             <v>Nawabganj</v>
           </cell>
@@ -8966,12 +9965,15 @@
           <cell r="J344">
             <v>343</v>
           </cell>
+          <cell r="K344"/>
           <cell r="L344" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M344" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N344"/>
+          <cell r="O344"/>
           <cell r="P344" t="e">
             <v>#N/A</v>
           </cell>
@@ -8986,12 +9988,15 @@
           <cell r="J345">
             <v>344</v>
           </cell>
+          <cell r="K345"/>
           <cell r="L345" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M345" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N345"/>
+          <cell r="O345"/>
           <cell r="P345" t="e">
             <v>#N/A</v>
           </cell>
@@ -9006,12 +10011,15 @@
           <cell r="J346">
             <v>345</v>
           </cell>
+          <cell r="K346"/>
           <cell r="L346" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M346" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N346"/>
+          <cell r="O346"/>
           <cell r="P346" t="e">
             <v>#N/A</v>
           </cell>
@@ -9026,12 +10034,15 @@
           <cell r="J347">
             <v>346</v>
           </cell>
+          <cell r="K347"/>
           <cell r="L347" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M347" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N347"/>
+          <cell r="O347"/>
           <cell r="P347" t="e">
             <v>#N/A</v>
           </cell>
@@ -9046,12 +10057,15 @@
           <cell r="J348">
             <v>347</v>
           </cell>
+          <cell r="K348"/>
           <cell r="L348" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M348" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N348"/>
+          <cell r="O348"/>
           <cell r="P348" t="e">
             <v>#N/A</v>
           </cell>
@@ -9066,12 +10080,15 @@
           <cell r="J349">
             <v>348</v>
           </cell>
+          <cell r="K349"/>
           <cell r="L349" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M349" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N349"/>
+          <cell r="O349"/>
           <cell r="P349" t="e">
             <v>#N/A</v>
           </cell>
@@ -9086,12 +10103,15 @@
           <cell r="J350">
             <v>349</v>
           </cell>
+          <cell r="K350"/>
           <cell r="L350" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M350" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N350"/>
+          <cell r="O350"/>
           <cell r="P350" t="e">
             <v>#N/A</v>
           </cell>
@@ -9106,12 +10126,15 @@
           <cell r="J351">
             <v>350</v>
           </cell>
+          <cell r="K351"/>
           <cell r="L351" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M351" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N351"/>
+          <cell r="O351"/>
           <cell r="P351" t="e">
             <v>#N/A</v>
           </cell>
@@ -9126,12 +10149,15 @@
           <cell r="J352">
             <v>351</v>
           </cell>
+          <cell r="K352"/>
           <cell r="L352" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M352" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N352"/>
+          <cell r="O352"/>
           <cell r="P352" t="e">
             <v>#N/A</v>
           </cell>
@@ -9146,12 +10172,15 @@
           <cell r="J353">
             <v>352</v>
           </cell>
+          <cell r="K353"/>
           <cell r="L353" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M353" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N353"/>
+          <cell r="O353"/>
           <cell r="P353" t="e">
             <v>#N/A</v>
           </cell>
@@ -9166,12 +10195,15 @@
           <cell r="J354">
             <v>353</v>
           </cell>
+          <cell r="K354"/>
           <cell r="L354" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M354" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N354"/>
+          <cell r="O354"/>
           <cell r="P354" t="e">
             <v>#N/A</v>
           </cell>
@@ -9186,12 +10218,15 @@
           <cell r="J355">
             <v>354</v>
           </cell>
+          <cell r="K355"/>
           <cell r="L355" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M355" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N355"/>
+          <cell r="O355"/>
           <cell r="P355" t="e">
             <v>#N/A</v>
           </cell>
@@ -9206,12 +10241,15 @@
           <cell r="J356">
             <v>355</v>
           </cell>
+          <cell r="K356"/>
           <cell r="L356" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M356" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N356"/>
+          <cell r="O356"/>
           <cell r="P356" t="e">
             <v>#N/A</v>
           </cell>
@@ -9226,12 +10264,14 @@
           <cell r="J357">
             <v>356</v>
           </cell>
+          <cell r="K357"/>
           <cell r="L357" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M357" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N357"/>
           <cell r="O357" t="str">
             <v>Rajshahi</v>
           </cell>
@@ -9249,12 +10289,15 @@
           <cell r="J358">
             <v>357</v>
           </cell>
+          <cell r="K358"/>
           <cell r="L358" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M358" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N358"/>
+          <cell r="O358"/>
           <cell r="P358" t="e">
             <v>#N/A</v>
           </cell>
@@ -9269,12 +10312,15 @@
           <cell r="J359">
             <v>358</v>
           </cell>
+          <cell r="K359"/>
           <cell r="L359" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M359" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N359"/>
+          <cell r="O359"/>
           <cell r="P359" t="e">
             <v>#N/A</v>
           </cell>
@@ -9289,12 +10335,15 @@
           <cell r="J360">
             <v>359</v>
           </cell>
+          <cell r="K360"/>
           <cell r="L360" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M360" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N360"/>
+          <cell r="O360"/>
           <cell r="P360" t="e">
             <v>#N/A</v>
           </cell>
@@ -9309,12 +10358,15 @@
           <cell r="J361">
             <v>360</v>
           </cell>
+          <cell r="K361"/>
           <cell r="L361" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M361" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N361"/>
+          <cell r="O361"/>
           <cell r="P361" t="e">
             <v>#N/A</v>
           </cell>
@@ -9329,12 +10381,15 @@
           <cell r="J362">
             <v>361</v>
           </cell>
+          <cell r="K362"/>
           <cell r="L362" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M362" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N362"/>
+          <cell r="O362"/>
           <cell r="P362" t="e">
             <v>#N/A</v>
           </cell>
@@ -9349,12 +10404,15 @@
           <cell r="J363">
             <v>362</v>
           </cell>
+          <cell r="K363"/>
           <cell r="L363" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M363" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N363"/>
+          <cell r="O363"/>
           <cell r="P363" t="e">
             <v>#N/A</v>
           </cell>
@@ -9369,12 +10427,15 @@
           <cell r="J364">
             <v>363</v>
           </cell>
+          <cell r="K364"/>
           <cell r="L364" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M364" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N364"/>
+          <cell r="O364"/>
           <cell r="P364" t="e">
             <v>#N/A</v>
           </cell>
@@ -9389,12 +10450,15 @@
           <cell r="J365">
             <v>364</v>
           </cell>
+          <cell r="K365"/>
           <cell r="L365" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M365" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N365"/>
+          <cell r="O365"/>
           <cell r="P365" t="e">
             <v>#N/A</v>
           </cell>
@@ -9409,12 +10473,15 @@
           <cell r="J366">
             <v>365</v>
           </cell>
+          <cell r="K366"/>
           <cell r="L366" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M366" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N366"/>
+          <cell r="O366"/>
           <cell r="P366" t="e">
             <v>#N/A</v>
           </cell>
@@ -9429,12 +10496,15 @@
           <cell r="J367">
             <v>366</v>
           </cell>
+          <cell r="K367"/>
           <cell r="L367" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M367" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N367"/>
+          <cell r="O367"/>
           <cell r="P367" t="e">
             <v>#N/A</v>
           </cell>
@@ -9449,12 +10519,15 @@
           <cell r="J368">
             <v>367</v>
           </cell>
+          <cell r="K368"/>
           <cell r="L368" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M368" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N368"/>
+          <cell r="O368"/>
           <cell r="P368" t="e">
             <v>#N/A</v>
           </cell>
@@ -9469,12 +10542,15 @@
           <cell r="J369">
             <v>368</v>
           </cell>
+          <cell r="K369"/>
           <cell r="L369" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M369" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N369"/>
+          <cell r="O369"/>
           <cell r="P369" t="e">
             <v>#N/A</v>
           </cell>
@@ -9489,12 +10565,15 @@
           <cell r="J370">
             <v>369</v>
           </cell>
+          <cell r="K370"/>
           <cell r="L370" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M370" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N370"/>
+          <cell r="O370"/>
           <cell r="P370" t="e">
             <v>#N/A</v>
           </cell>
@@ -9509,12 +10588,15 @@
           <cell r="J371">
             <v>370</v>
           </cell>
+          <cell r="K371"/>
           <cell r="L371" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M371" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N371"/>
+          <cell r="O371"/>
           <cell r="P371" t="e">
             <v>#N/A</v>
           </cell>
@@ -9529,12 +10611,15 @@
           <cell r="J372">
             <v>371</v>
           </cell>
+          <cell r="K372"/>
           <cell r="L372" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M372" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N372"/>
+          <cell r="O372"/>
           <cell r="P372" t="e">
             <v>#N/A</v>
           </cell>
@@ -9549,12 +10634,15 @@
           <cell r="J373">
             <v>372</v>
           </cell>
+          <cell r="K373"/>
           <cell r="L373" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M373" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N373"/>
+          <cell r="O373"/>
           <cell r="P373" t="e">
             <v>#N/A</v>
           </cell>
@@ -9569,12 +10657,15 @@
           <cell r="J374">
             <v>373</v>
           </cell>
+          <cell r="K374"/>
           <cell r="L374" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M374" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N374"/>
+          <cell r="O374"/>
           <cell r="P374" t="e">
             <v>#N/A</v>
           </cell>
@@ -9589,12 +10680,15 @@
           <cell r="J375">
             <v>374</v>
           </cell>
+          <cell r="K375"/>
           <cell r="L375" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M375" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N375"/>
+          <cell r="O375"/>
           <cell r="P375" t="e">
             <v>#N/A</v>
           </cell>
@@ -9609,12 +10703,15 @@
           <cell r="J376">
             <v>375</v>
           </cell>
+          <cell r="K376"/>
           <cell r="L376" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M376" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N376"/>
+          <cell r="O376"/>
           <cell r="P376" t="e">
             <v>#N/A</v>
           </cell>
@@ -9629,12 +10726,15 @@
           <cell r="J377">
             <v>376</v>
           </cell>
+          <cell r="K377"/>
           <cell r="L377" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M377" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N377"/>
+          <cell r="O377"/>
           <cell r="P377" t="e">
             <v>#N/A</v>
           </cell>
@@ -9649,12 +10749,15 @@
           <cell r="J378">
             <v>377</v>
           </cell>
+          <cell r="K378"/>
           <cell r="L378" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M378" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N378"/>
+          <cell r="O378"/>
           <cell r="P378" t="e">
             <v>#N/A</v>
           </cell>
@@ -9669,12 +10772,15 @@
           <cell r="J379">
             <v>378</v>
           </cell>
+          <cell r="K379"/>
           <cell r="L379" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M379" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N379"/>
+          <cell r="O379"/>
           <cell r="P379" t="e">
             <v>#N/A</v>
           </cell>
@@ -9689,12 +10795,15 @@
           <cell r="J380">
             <v>379</v>
           </cell>
+          <cell r="K380"/>
           <cell r="L380" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M380" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N380"/>
+          <cell r="O380"/>
           <cell r="P380" t="e">
             <v>#N/A</v>
           </cell>
@@ -9709,12 +10818,15 @@
           <cell r="J381">
             <v>380</v>
           </cell>
+          <cell r="K381"/>
           <cell r="L381" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M381" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N381"/>
+          <cell r="O381"/>
           <cell r="P381" t="e">
             <v>#N/A</v>
           </cell>
@@ -9729,12 +10841,14 @@
           <cell r="J382">
             <v>381</v>
           </cell>
+          <cell r="K382"/>
           <cell r="L382" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M382" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N382"/>
           <cell r="O382" t="str">
             <v>Dinajpur</v>
           </cell>
@@ -9752,12 +10866,15 @@
           <cell r="J383">
             <v>382</v>
           </cell>
+          <cell r="K383"/>
           <cell r="L383" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M383" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N383"/>
+          <cell r="O383"/>
           <cell r="P383" t="e">
             <v>#N/A</v>
           </cell>
@@ -9772,12 +10889,14 @@
           <cell r="J384">
             <v>383</v>
           </cell>
+          <cell r="K384"/>
           <cell r="L384" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M384" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N384"/>
           <cell r="O384" t="str">
             <v>Dinajpur</v>
           </cell>
@@ -9795,12 +10914,15 @@
           <cell r="J385">
             <v>384</v>
           </cell>
+          <cell r="K385"/>
           <cell r="L385" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M385" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N385"/>
+          <cell r="O385"/>
           <cell r="P385" t="e">
             <v>#N/A</v>
           </cell>
@@ -9815,12 +10937,15 @@
           <cell r="J386">
             <v>385</v>
           </cell>
+          <cell r="K386"/>
           <cell r="L386" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M386" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N386"/>
+          <cell r="O386"/>
           <cell r="P386" t="e">
             <v>#N/A</v>
           </cell>
@@ -9835,12 +10960,15 @@
           <cell r="J387">
             <v>386</v>
           </cell>
+          <cell r="K387"/>
           <cell r="L387" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M387" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N387"/>
+          <cell r="O387"/>
           <cell r="P387" t="e">
             <v>#N/A</v>
           </cell>
@@ -9855,12 +10983,15 @@
           <cell r="J388">
             <v>387</v>
           </cell>
+          <cell r="K388"/>
           <cell r="L388" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M388" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N388"/>
+          <cell r="O388"/>
           <cell r="P388" t="e">
             <v>#N/A</v>
           </cell>
@@ -9875,12 +11006,15 @@
           <cell r="J389">
             <v>388</v>
           </cell>
+          <cell r="K389"/>
           <cell r="L389" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M389" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N389"/>
+          <cell r="O389"/>
           <cell r="P389" t="e">
             <v>#N/A</v>
           </cell>
@@ -9895,12 +11029,15 @@
           <cell r="J390">
             <v>389</v>
           </cell>
+          <cell r="K390"/>
           <cell r="L390" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M390" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N390"/>
+          <cell r="O390"/>
           <cell r="P390" t="e">
             <v>#N/A</v>
           </cell>
@@ -9915,12 +11052,15 @@
           <cell r="J391">
             <v>390</v>
           </cell>
+          <cell r="K391"/>
           <cell r="L391" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M391" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N391"/>
+          <cell r="O391"/>
           <cell r="P391" t="e">
             <v>#N/A</v>
           </cell>
@@ -9935,12 +11075,15 @@
           <cell r="J392">
             <v>391</v>
           </cell>
+          <cell r="K392"/>
           <cell r="L392" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M392" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N392"/>
+          <cell r="O392"/>
           <cell r="P392" t="e">
             <v>#N/A</v>
           </cell>
@@ -9955,12 +11098,15 @@
           <cell r="J393">
             <v>392</v>
           </cell>
+          <cell r="K393"/>
           <cell r="L393" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M393" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N393"/>
+          <cell r="O393"/>
           <cell r="P393" t="e">
             <v>#N/A</v>
           </cell>
@@ -9975,12 +11121,15 @@
           <cell r="J394">
             <v>393</v>
           </cell>
+          <cell r="K394"/>
           <cell r="L394" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M394" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N394"/>
+          <cell r="O394"/>
           <cell r="P394" t="e">
             <v>#N/A</v>
           </cell>
@@ -9995,12 +11144,15 @@
           <cell r="J395">
             <v>394</v>
           </cell>
+          <cell r="K395"/>
           <cell r="L395" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M395" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N395"/>
+          <cell r="O395"/>
           <cell r="P395" t="e">
             <v>#N/A</v>
           </cell>
@@ -10015,12 +11167,15 @@
           <cell r="J396">
             <v>395</v>
           </cell>
+          <cell r="K396"/>
           <cell r="L396" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M396" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N396"/>
+          <cell r="O396"/>
           <cell r="P396" t="e">
             <v>#N/A</v>
           </cell>
@@ -10035,12 +11190,14 @@
           <cell r="J397">
             <v>396</v>
           </cell>
+          <cell r="K397"/>
           <cell r="L397" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M397" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N397"/>
           <cell r="O397" t="str">
             <v>Kurigram</v>
           </cell>
@@ -10058,12 +11215,15 @@
           <cell r="J398">
             <v>397</v>
           </cell>
+          <cell r="K398"/>
           <cell r="L398" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M398" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N398"/>
+          <cell r="O398"/>
           <cell r="P398" t="e">
             <v>#N/A</v>
           </cell>
@@ -10078,12 +11238,15 @@
           <cell r="J399">
             <v>398</v>
           </cell>
+          <cell r="K399"/>
           <cell r="L399" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M399" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N399"/>
+          <cell r="O399"/>
           <cell r="P399" t="e">
             <v>#N/A</v>
           </cell>
@@ -10098,12 +11261,15 @@
           <cell r="J400">
             <v>399</v>
           </cell>
+          <cell r="K400"/>
           <cell r="L400" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M400" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N400"/>
+          <cell r="O400"/>
           <cell r="P400" t="e">
             <v>#N/A</v>
           </cell>
@@ -10118,12 +11284,15 @@
           <cell r="J401">
             <v>400</v>
           </cell>
+          <cell r="K401"/>
           <cell r="L401" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M401" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N401"/>
+          <cell r="O401"/>
           <cell r="P401" t="e">
             <v>#N/A</v>
           </cell>
@@ -10138,12 +11307,15 @@
           <cell r="J402">
             <v>401</v>
           </cell>
+          <cell r="K402"/>
           <cell r="L402" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M402" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N402"/>
+          <cell r="O402"/>
           <cell r="P402" t="e">
             <v>#N/A</v>
           </cell>
@@ -10158,12 +11330,14 @@
           <cell r="J403">
             <v>402</v>
           </cell>
+          <cell r="K403"/>
           <cell r="L403" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M403" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N403"/>
           <cell r="O403" t="str">
             <v>Lalmonirhat</v>
           </cell>
@@ -10181,12 +11355,15 @@
           <cell r="J404">
             <v>403</v>
           </cell>
+          <cell r="K404"/>
           <cell r="L404" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M404" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N404"/>
+          <cell r="O404"/>
           <cell r="P404" t="e">
             <v>#N/A</v>
           </cell>
@@ -10201,12 +11378,15 @@
           <cell r="J405">
             <v>404</v>
           </cell>
+          <cell r="K405"/>
           <cell r="L405" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M405" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N405"/>
+          <cell r="O405"/>
           <cell r="P405" t="e">
             <v>#N/A</v>
           </cell>
@@ -10221,12 +11401,15 @@
           <cell r="J406">
             <v>405</v>
           </cell>
+          <cell r="K406"/>
           <cell r="L406" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M406" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N406"/>
+          <cell r="O406"/>
           <cell r="P406" t="e">
             <v>#N/A</v>
           </cell>
@@ -10241,12 +11424,15 @@
           <cell r="J407">
             <v>406</v>
           </cell>
+          <cell r="K407"/>
           <cell r="L407" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M407" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N407"/>
+          <cell r="O407"/>
           <cell r="P407" t="e">
             <v>#N/A</v>
           </cell>
@@ -10261,12 +11447,15 @@
           <cell r="J408">
             <v>407</v>
           </cell>
+          <cell r="K408"/>
           <cell r="L408" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M408" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N408"/>
+          <cell r="O408"/>
           <cell r="P408" t="e">
             <v>#N/A</v>
           </cell>
@@ -10281,12 +11470,15 @@
           <cell r="J409">
             <v>408</v>
           </cell>
+          <cell r="K409"/>
           <cell r="L409" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M409" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N409"/>
+          <cell r="O409"/>
           <cell r="P409" t="e">
             <v>#N/A</v>
           </cell>
@@ -10301,12 +11493,15 @@
           <cell r="J410">
             <v>409</v>
           </cell>
+          <cell r="K410"/>
           <cell r="L410" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M410" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N410"/>
+          <cell r="O410"/>
           <cell r="P410" t="e">
             <v>#N/A</v>
           </cell>
@@ -10321,12 +11516,15 @@
           <cell r="J411">
             <v>410</v>
           </cell>
+          <cell r="K411"/>
           <cell r="L411" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M411" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N411"/>
+          <cell r="O411"/>
           <cell r="P411" t="e">
             <v>#N/A</v>
           </cell>
@@ -10341,12 +11539,15 @@
           <cell r="J412">
             <v>411</v>
           </cell>
+          <cell r="K412"/>
           <cell r="L412" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M412" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N412"/>
+          <cell r="O412"/>
           <cell r="P412" t="e">
             <v>#N/A</v>
           </cell>
@@ -10361,12 +11562,15 @@
           <cell r="J413">
             <v>412</v>
           </cell>
+          <cell r="K413"/>
           <cell r="L413" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M413" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N413"/>
+          <cell r="O413"/>
           <cell r="P413" t="e">
             <v>#N/A</v>
           </cell>
@@ -10381,12 +11585,15 @@
           <cell r="J414">
             <v>413</v>
           </cell>
+          <cell r="K414"/>
           <cell r="L414" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M414" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N414"/>
+          <cell r="O414"/>
           <cell r="P414" t="e">
             <v>#N/A</v>
           </cell>
@@ -10401,12 +11608,15 @@
           <cell r="J415">
             <v>414</v>
           </cell>
+          <cell r="K415"/>
           <cell r="L415" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M415" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N415"/>
+          <cell r="O415"/>
           <cell r="P415" t="e">
             <v>#N/A</v>
           </cell>
@@ -10421,12 +11631,15 @@
           <cell r="J416">
             <v>415</v>
           </cell>
+          <cell r="K416"/>
           <cell r="L416" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M416" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N416"/>
+          <cell r="O416"/>
           <cell r="P416" t="e">
             <v>#N/A</v>
           </cell>
@@ -10441,12 +11654,15 @@
           <cell r="J417">
             <v>416</v>
           </cell>
+          <cell r="K417"/>
           <cell r="L417" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M417" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N417"/>
+          <cell r="O417"/>
           <cell r="P417" t="e">
             <v>#N/A</v>
           </cell>
@@ -10461,12 +11677,15 @@
           <cell r="J418">
             <v>417</v>
           </cell>
+          <cell r="K418"/>
           <cell r="L418" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M418" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N418"/>
+          <cell r="O418"/>
           <cell r="P418" t="e">
             <v>#N/A</v>
           </cell>
@@ -10481,12 +11700,15 @@
           <cell r="J419">
             <v>418</v>
           </cell>
+          <cell r="K419"/>
           <cell r="L419" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M419" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N419"/>
+          <cell r="O419"/>
           <cell r="P419" t="e">
             <v>#N/A</v>
           </cell>
@@ -10501,12 +11723,15 @@
           <cell r="J420">
             <v>419</v>
           </cell>
+          <cell r="K420"/>
           <cell r="L420" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M420" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N420"/>
+          <cell r="O420"/>
           <cell r="P420" t="e">
             <v>#N/A</v>
           </cell>
@@ -10521,12 +11746,15 @@
           <cell r="J421">
             <v>420</v>
           </cell>
+          <cell r="K421"/>
           <cell r="L421" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M421" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N421"/>
+          <cell r="O421"/>
           <cell r="P421" t="e">
             <v>#N/A</v>
           </cell>
@@ -10541,12 +11769,14 @@
           <cell r="J422">
             <v>421</v>
           </cell>
+          <cell r="K422"/>
           <cell r="L422" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M422" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N422"/>
           <cell r="O422" t="str">
             <v>Rangpur</v>
           </cell>
@@ -10564,12 +11794,15 @@
           <cell r="J423">
             <v>422</v>
           </cell>
+          <cell r="K423"/>
           <cell r="L423" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M423" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N423"/>
+          <cell r="O423"/>
           <cell r="P423" t="e">
             <v>#N/A</v>
           </cell>
@@ -10584,12 +11817,15 @@
           <cell r="J424">
             <v>423</v>
           </cell>
+          <cell r="K424"/>
           <cell r="L424" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M424" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N424"/>
+          <cell r="O424"/>
           <cell r="P424" t="e">
             <v>#N/A</v>
           </cell>
@@ -10604,12 +11840,15 @@
           <cell r="J425">
             <v>424</v>
           </cell>
+          <cell r="K425"/>
           <cell r="L425" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M425" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N425"/>
+          <cell r="O425"/>
           <cell r="P425" t="e">
             <v>#N/A</v>
           </cell>
@@ -10624,12 +11863,15 @@
           <cell r="J426">
             <v>425</v>
           </cell>
+          <cell r="K426"/>
           <cell r="L426" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M426" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N426"/>
+          <cell r="O426"/>
           <cell r="P426" t="e">
             <v>#N/A</v>
           </cell>
@@ -10644,12 +11886,14 @@
           <cell r="J427">
             <v>426</v>
           </cell>
+          <cell r="K427"/>
           <cell r="L427" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M427" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N427"/>
           <cell r="O427" t="str">
             <v>Thakurgaon</v>
           </cell>
@@ -10667,12 +11911,15 @@
           <cell r="J428">
             <v>427</v>
           </cell>
+          <cell r="K428"/>
           <cell r="L428" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M428" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N428"/>
+          <cell r="O428"/>
           <cell r="P428" t="e">
             <v>#N/A</v>
           </cell>
@@ -10687,12 +11934,15 @@
           <cell r="J429">
             <v>428</v>
           </cell>
+          <cell r="K429"/>
           <cell r="L429" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M429" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N429"/>
+          <cell r="O429"/>
           <cell r="P429" t="e">
             <v>#N/A</v>
           </cell>
@@ -10707,12 +11957,15 @@
           <cell r="J430">
             <v>429</v>
           </cell>
+          <cell r="K430"/>
           <cell r="L430" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M430" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N430"/>
+          <cell r="O430"/>
           <cell r="P430" t="e">
             <v>#N/A</v>
           </cell>
@@ -10727,12 +11980,15 @@
           <cell r="J431">
             <v>430</v>
           </cell>
+          <cell r="K431"/>
           <cell r="L431" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M431" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N431"/>
+          <cell r="O431"/>
           <cell r="P431" t="e">
             <v>#N/A</v>
           </cell>
@@ -10747,12 +12003,15 @@
           <cell r="J432">
             <v>431</v>
           </cell>
+          <cell r="K432"/>
           <cell r="L432" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M432" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N432"/>
+          <cell r="O432"/>
           <cell r="P432" t="e">
             <v>#N/A</v>
           </cell>
@@ -10767,12 +12026,15 @@
           <cell r="J433">
             <v>432</v>
           </cell>
+          <cell r="K433"/>
           <cell r="L433" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M433" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N433"/>
+          <cell r="O433"/>
           <cell r="P433" t="e">
             <v>#N/A</v>
           </cell>
@@ -10787,12 +12049,15 @@
           <cell r="J434">
             <v>433</v>
           </cell>
+          <cell r="K434"/>
           <cell r="L434" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M434" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N434"/>
+          <cell r="O434"/>
           <cell r="P434" t="e">
             <v>#N/A</v>
           </cell>
@@ -10807,12 +12072,15 @@
           <cell r="J435">
             <v>434</v>
           </cell>
+          <cell r="K435"/>
           <cell r="L435" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M435" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N435"/>
+          <cell r="O435"/>
           <cell r="P435" t="e">
             <v>#N/A</v>
           </cell>
@@ -10827,12 +12095,15 @@
           <cell r="J436">
             <v>435</v>
           </cell>
+          <cell r="K436"/>
           <cell r="L436" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M436" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N436"/>
+          <cell r="O436"/>
           <cell r="P436" t="e">
             <v>#N/A</v>
           </cell>
@@ -10847,12 +12118,15 @@
           <cell r="J437">
             <v>436</v>
           </cell>
+          <cell r="K437"/>
           <cell r="L437" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M437" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N437"/>
+          <cell r="O437"/>
           <cell r="P437" t="e">
             <v>#N/A</v>
           </cell>
@@ -10867,12 +12141,15 @@
           <cell r="J438">
             <v>437</v>
           </cell>
+          <cell r="K438"/>
           <cell r="L438" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M438" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N438"/>
+          <cell r="O438"/>
           <cell r="P438" t="e">
             <v>#N/A</v>
           </cell>
@@ -10887,12 +12164,15 @@
           <cell r="J439">
             <v>438</v>
           </cell>
+          <cell r="K439"/>
           <cell r="L439" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M439" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N439"/>
+          <cell r="O439"/>
           <cell r="P439" t="e">
             <v>#N/A</v>
           </cell>
@@ -10907,12 +12187,15 @@
           <cell r="J440">
             <v>439</v>
           </cell>
+          <cell r="K440"/>
           <cell r="L440" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M440" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N440"/>
+          <cell r="O440"/>
           <cell r="P440" t="e">
             <v>#N/A</v>
           </cell>
@@ -10927,12 +12210,15 @@
           <cell r="J441">
             <v>440</v>
           </cell>
+          <cell r="K441"/>
           <cell r="L441" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M441" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N441"/>
+          <cell r="O441"/>
           <cell r="P441" t="e">
             <v>#N/A</v>
           </cell>
@@ -10947,12 +12233,15 @@
           <cell r="J442">
             <v>441</v>
           </cell>
+          <cell r="K442"/>
           <cell r="L442" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M442" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N442"/>
+          <cell r="O442"/>
           <cell r="P442" t="e">
             <v>#N/A</v>
           </cell>
@@ -10967,12 +12256,15 @@
           <cell r="J443">
             <v>442</v>
           </cell>
+          <cell r="K443"/>
           <cell r="L443" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M443" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N443"/>
+          <cell r="O443"/>
           <cell r="P443" t="e">
             <v>#N/A</v>
           </cell>
@@ -10987,12 +12279,15 @@
           <cell r="J444">
             <v>443</v>
           </cell>
+          <cell r="K444"/>
           <cell r="L444" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M444" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N444"/>
+          <cell r="O444"/>
           <cell r="P444" t="e">
             <v>#N/A</v>
           </cell>
@@ -11007,12 +12302,15 @@
           <cell r="J445">
             <v>444</v>
           </cell>
+          <cell r="K445"/>
           <cell r="L445" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M445" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N445"/>
+          <cell r="O445"/>
           <cell r="P445" t="e">
             <v>#N/A</v>
           </cell>
@@ -11027,12 +12325,15 @@
           <cell r="J446">
             <v>445</v>
           </cell>
+          <cell r="K446"/>
           <cell r="L446" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M446" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N446"/>
+          <cell r="O446"/>
           <cell r="P446" t="e">
             <v>#N/A</v>
           </cell>
@@ -11047,12 +12348,15 @@
           <cell r="J447">
             <v>446</v>
           </cell>
+          <cell r="K447"/>
           <cell r="L447" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M447" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N447"/>
+          <cell r="O447"/>
           <cell r="P447" t="e">
             <v>#N/A</v>
           </cell>
@@ -11067,12 +12371,15 @@
           <cell r="J448">
             <v>447</v>
           </cell>
+          <cell r="K448"/>
           <cell r="L448" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M448" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N448"/>
+          <cell r="O448"/>
           <cell r="P448" t="e">
             <v>#N/A</v>
           </cell>
@@ -11087,12 +12394,15 @@
           <cell r="J449">
             <v>448</v>
           </cell>
+          <cell r="K449"/>
           <cell r="L449" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M449" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N449"/>
+          <cell r="O449"/>
           <cell r="P449" t="e">
             <v>#N/A</v>
           </cell>
@@ -11107,12 +12417,15 @@
           <cell r="J450">
             <v>449</v>
           </cell>
+          <cell r="K450"/>
           <cell r="L450" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M450" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N450"/>
+          <cell r="O450"/>
           <cell r="P450" t="e">
             <v>#N/A</v>
           </cell>
@@ -11127,12 +12440,15 @@
           <cell r="J451">
             <v>450</v>
           </cell>
+          <cell r="K451"/>
           <cell r="L451" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M451" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N451"/>
+          <cell r="O451"/>
           <cell r="P451" t="e">
             <v>#N/A</v>
           </cell>
@@ -11147,12 +12463,15 @@
           <cell r="J452">
             <v>451</v>
           </cell>
+          <cell r="K452"/>
           <cell r="L452" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M452" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N452"/>
+          <cell r="O452"/>
           <cell r="P452" t="e">
             <v>#N/A</v>
           </cell>
@@ -11167,12 +12486,15 @@
           <cell r="J453">
             <v>452</v>
           </cell>
+          <cell r="K453"/>
           <cell r="L453" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M453" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N453"/>
+          <cell r="O453"/>
           <cell r="P453" t="e">
             <v>#N/A</v>
           </cell>
@@ -11187,12 +12509,15 @@
           <cell r="J454">
             <v>453</v>
           </cell>
+          <cell r="K454"/>
           <cell r="L454" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M454" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N454"/>
+          <cell r="O454"/>
           <cell r="P454" t="e">
             <v>#N/A</v>
           </cell>
@@ -11207,12 +12532,15 @@
           <cell r="J455">
             <v>454</v>
           </cell>
+          <cell r="K455"/>
           <cell r="L455" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M455" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N455"/>
+          <cell r="O455"/>
           <cell r="P455" t="e">
             <v>#N/A</v>
           </cell>
@@ -11227,12 +12555,15 @@
           <cell r="J456">
             <v>455</v>
           </cell>
+          <cell r="K456"/>
           <cell r="L456" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M456" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N456"/>
+          <cell r="O456"/>
           <cell r="P456" t="e">
             <v>#N/A</v>
           </cell>
@@ -11247,12 +12578,14 @@
           <cell r="J457">
             <v>456</v>
           </cell>
+          <cell r="K457"/>
           <cell r="L457" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M457" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N457"/>
           <cell r="O457" t="str">
             <v>Sylhet</v>
           </cell>
@@ -11270,12 +12603,15 @@
           <cell r="J458">
             <v>457</v>
           </cell>
+          <cell r="K458"/>
           <cell r="L458" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M458" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N458"/>
+          <cell r="O458"/>
           <cell r="P458" t="e">
             <v>#N/A</v>
           </cell>
@@ -11290,12 +12626,15 @@
           <cell r="J459">
             <v>458</v>
           </cell>
+          <cell r="K459"/>
           <cell r="L459" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M459" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N459"/>
+          <cell r="O459"/>
           <cell r="P459" t="e">
             <v>#N/A</v>
           </cell>
@@ -11310,12 +12649,15 @@
           <cell r="J460">
             <v>459</v>
           </cell>
+          <cell r="K460"/>
           <cell r="L460" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M460" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N460"/>
+          <cell r="O460"/>
           <cell r="P460" t="e">
             <v>#N/A</v>
           </cell>
@@ -11330,12 +12672,15 @@
           <cell r="J461">
             <v>460</v>
           </cell>
+          <cell r="K461"/>
           <cell r="L461" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M461" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N461"/>
+          <cell r="O461"/>
           <cell r="P461" t="e">
             <v>#N/A</v>
           </cell>
@@ -11350,12 +12695,15 @@
           <cell r="J462">
             <v>461</v>
           </cell>
+          <cell r="K462"/>
           <cell r="L462" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M462" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N462"/>
+          <cell r="O462"/>
           <cell r="P462" t="e">
             <v>#N/A</v>
           </cell>
@@ -11370,12 +12718,15 @@
           <cell r="J463">
             <v>462</v>
           </cell>
+          <cell r="K463"/>
           <cell r="L463" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M463" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N463"/>
+          <cell r="O463"/>
           <cell r="P463" t="e">
             <v>#N/A</v>
           </cell>
@@ -11390,12 +12741,15 @@
           <cell r="J464">
             <v>463</v>
           </cell>
+          <cell r="K464"/>
           <cell r="L464" t="str">
             <v>Upazila|Thana|Po</v>
           </cell>
           <cell r="M464" t="str">
             <v>Sub-district</v>
           </cell>
+          <cell r="N464"/>
+          <cell r="O464"/>
           <cell r="P464" t="e">
             <v>#N/A</v>
           </cell>
@@ -11404,6 +12758,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -11708,12 +13063,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A17B90D-00A1-403B-8058-E8E5AC9DCBD5}">
   <dimension ref="A1:H285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="H278" sqref="H278"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="L87" sqref="L87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
     <col min="6" max="6" width="26.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
